--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2576.047552601524</v>
+        <v>2987.029795310888</v>
       </c>
       <c r="AB2" t="n">
-        <v>3524.66190866681</v>
+        <v>4086.985944398704</v>
       </c>
       <c r="AC2" t="n">
-        <v>3188.273122997575</v>
+        <v>3696.929741985936</v>
       </c>
       <c r="AD2" t="n">
-        <v>2576047.552601524</v>
+        <v>2987029.795310888</v>
       </c>
       <c r="AE2" t="n">
-        <v>3524661.90866681</v>
+        <v>4086985.944398704</v>
       </c>
       <c r="AF2" t="n">
         <v>1.914084861850943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.00231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>3188273.122997575</v>
+        <v>3696929.741985936</v>
       </c>
     </row>
     <row r="3">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1597.00679994182</v>
+        <v>1890.526787407005</v>
       </c>
       <c r="AB3" t="n">
-        <v>2185.09515864795</v>
+        <v>2586.702154685754</v>
       </c>
       <c r="AC3" t="n">
-        <v>1976.552743506905</v>
+        <v>2339.83093150182</v>
       </c>
       <c r="AD3" t="n">
-        <v>1597006.79994182</v>
+        <v>1890526.787407005</v>
       </c>
       <c r="AE3" t="n">
-        <v>2185095.15864795</v>
+        <v>2586702.154685754</v>
       </c>
       <c r="AF3" t="n">
         <v>2.69110974732072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.32175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1976552.743506905</v>
+        <v>2339830.931501821</v>
       </c>
     </row>
     <row r="4">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1381.427127406535</v>
+        <v>1645.581551060674</v>
       </c>
       <c r="AB4" t="n">
-        <v>1890.129539981252</v>
+        <v>2251.557276095542</v>
       </c>
       <c r="AC4" t="n">
-        <v>1709.738229498912</v>
+        <v>2036.671809745467</v>
       </c>
       <c r="AD4" t="n">
-        <v>1381427.127406535</v>
+        <v>1645581.551060674</v>
       </c>
       <c r="AE4" t="n">
-        <v>1890129.539981253</v>
+        <v>2251557.276095543</v>
       </c>
       <c r="AF4" t="n">
         <v>2.990935580090995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.47685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1709738.229498912</v>
+        <v>2036671.809745468</v>
       </c>
     </row>
     <row r="5">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1281.780468669861</v>
+        <v>1536.213690861356</v>
       </c>
       <c r="AB5" t="n">
-        <v>1753.788585397412</v>
+        <v>2101.915344801372</v>
       </c>
       <c r="AC5" t="n">
-        <v>1586.409464264822</v>
+        <v>1901.311494350243</v>
       </c>
       <c r="AD5" t="n">
-        <v>1281780.468669861</v>
+        <v>1536213.690861356</v>
       </c>
       <c r="AE5" t="n">
-        <v>1753788.585397412</v>
+        <v>2101915.344801372</v>
       </c>
       <c r="AF5" t="n">
         <v>3.152307240424161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.79166666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>1586409.464264822</v>
+        <v>1901311.494350243</v>
       </c>
     </row>
     <row r="6">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1229.803848065985</v>
+        <v>1474.381229179427</v>
       </c>
       <c r="AB6" t="n">
-        <v>1682.671880040523</v>
+        <v>2017.31344287247</v>
       </c>
       <c r="AC6" t="n">
-        <v>1522.080037454271</v>
+        <v>1824.78387920192</v>
       </c>
       <c r="AD6" t="n">
-        <v>1229803.848065984</v>
+        <v>1474381.229179427</v>
       </c>
       <c r="AE6" t="n">
-        <v>1682671.880040523</v>
+        <v>2017313.44287247</v>
       </c>
       <c r="AF6" t="n">
         <v>3.255774952049542e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.20601851851851</v>
       </c>
       <c r="AH6" t="n">
-        <v>1522080.037454271</v>
+        <v>1824783.87920192</v>
       </c>
     </row>
     <row r="7">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1191.760042338818</v>
+        <v>1426.583067600693</v>
       </c>
       <c r="AB7" t="n">
-        <v>1630.618666670359</v>
+        <v>1951.913889494382</v>
       </c>
       <c r="AC7" t="n">
-        <v>1474.994709711011</v>
+        <v>1765.625967409388</v>
       </c>
       <c r="AD7" t="n">
-        <v>1191760.042338818</v>
+        <v>1426583.067600693</v>
       </c>
       <c r="AE7" t="n">
-        <v>1630618.666670359</v>
+        <v>1951913.889494382</v>
       </c>
       <c r="AF7" t="n">
         <v>3.327239544482801e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.17592592592592</v>
       </c>
       <c r="AH7" t="n">
-        <v>1474994.709711011</v>
+        <v>1765625.967409388</v>
       </c>
     </row>
     <row r="8">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1166.467355372425</v>
+        <v>1401.357700442004</v>
       </c>
       <c r="AB8" t="n">
-        <v>1596.012096528342</v>
+        <v>1917.399429283208</v>
       </c>
       <c r="AC8" t="n">
-        <v>1443.690942052723</v>
+        <v>1734.405518839418</v>
       </c>
       <c r="AD8" t="n">
-        <v>1166467.355372425</v>
+        <v>1401357.700442004</v>
       </c>
       <c r="AE8" t="n">
-        <v>1596012.096528342</v>
+        <v>1917399.429283208</v>
       </c>
       <c r="AF8" t="n">
         <v>3.367107837035701e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.6087962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>1443690.942052723</v>
+        <v>1734405.518839418</v>
       </c>
     </row>
     <row r="9">
@@ -6394,28 +6394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1148.333194647269</v>
+        <v>1373.401864057576</v>
       </c>
       <c r="AB9" t="n">
-        <v>1571.200137801476</v>
+        <v>1879.149020617576</v>
       </c>
       <c r="AC9" t="n">
-        <v>1421.247001842945</v>
+        <v>1699.805675492049</v>
       </c>
       <c r="AD9" t="n">
-        <v>1148333.194647269</v>
+        <v>1373401.864057577</v>
       </c>
       <c r="AE9" t="n">
-        <v>1571200.137801476</v>
+        <v>1879149.020617576</v>
       </c>
       <c r="AF9" t="n">
         <v>3.407518555337619e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>47</v>
+        <v>46.06481481481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>1421247.001842945</v>
+        <v>1699805.675492049</v>
       </c>
     </row>
     <row r="10">
@@ -6500,28 +6500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1125.212842098497</v>
+        <v>1360.069021749296</v>
       </c>
       <c r="AB10" t="n">
-        <v>1539.565851446279</v>
+        <v>1860.906437567897</v>
       </c>
       <c r="AC10" t="n">
-        <v>1392.631847378489</v>
+        <v>1683.304138965005</v>
       </c>
       <c r="AD10" t="n">
-        <v>1125212.842098497</v>
+        <v>1360069.021749296</v>
       </c>
       <c r="AE10" t="n">
-        <v>1539565.851446279</v>
+        <v>1860906.437567896</v>
       </c>
       <c r="AF10" t="n">
         <v>3.437351971533667e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.65972222222223</v>
       </c>
       <c r="AH10" t="n">
-        <v>1392631.847378489</v>
+        <v>1683304.138965005</v>
       </c>
     </row>
     <row r="11">
@@ -6606,28 +6606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1111.246445788919</v>
+        <v>1336.280949780446</v>
       </c>
       <c r="AB11" t="n">
-        <v>1520.456411861596</v>
+        <v>1828.358548044448</v>
       </c>
       <c r="AC11" t="n">
-        <v>1375.346185887501</v>
+        <v>1653.862574336424</v>
       </c>
       <c r="AD11" t="n">
-        <v>1111246.445788919</v>
+        <v>1336280.949780446</v>
       </c>
       <c r="AE11" t="n">
-        <v>1520456.411861596</v>
+        <v>1828358.548044448</v>
       </c>
       <c r="AF11" t="n">
         <v>3.468677058539516e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>45.24305555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>1375346.185887501</v>
+        <v>1653862.574336424</v>
       </c>
     </row>
     <row r="12">
@@ -6712,28 +6712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1101.360484460706</v>
+        <v>1326.394988452233</v>
       </c>
       <c r="AB12" t="n">
-        <v>1506.930003434503</v>
+        <v>1814.832139617355</v>
       </c>
       <c r="AC12" t="n">
-        <v>1363.110718896256</v>
+        <v>1641.627107345179</v>
       </c>
       <c r="AD12" t="n">
-        <v>1101360.484460706</v>
+        <v>1326394.988452233</v>
       </c>
       <c r="AE12" t="n">
-        <v>1506930.003434503</v>
+        <v>1814832.139617355</v>
       </c>
       <c r="AF12" t="n">
         <v>3.487255140443419e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>46</v>
+        <v>45.01157407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>1363110.718896256</v>
+        <v>1641627.107345179</v>
       </c>
     </row>
     <row r="13">
@@ -6818,28 +6818,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1081.653854434351</v>
+        <v>1306.755678233583</v>
       </c>
       <c r="AB13" t="n">
-        <v>1479.966522837285</v>
+        <v>1787.960768950979</v>
       </c>
       <c r="AC13" t="n">
-        <v>1338.720595043755</v>
+        <v>1617.320302580997</v>
       </c>
       <c r="AD13" t="n">
-        <v>1081653.854434351</v>
+        <v>1306755.678233583</v>
       </c>
       <c r="AE13" t="n">
-        <v>1479966.522837285</v>
+        <v>1787960.768950979</v>
       </c>
       <c r="AF13" t="n">
         <v>3.507324893157123e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.74537037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>1338720.595043755</v>
+        <v>1617320.302580997</v>
       </c>
     </row>
     <row r="14">
@@ -6924,28 +6924,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1076.443465169942</v>
+        <v>1301.545288969173</v>
       </c>
       <c r="AB14" t="n">
-        <v>1472.837438379569</v>
+        <v>1780.831684493263</v>
       </c>
       <c r="AC14" t="n">
-        <v>1332.271900400949</v>
+        <v>1610.871607938192</v>
       </c>
       <c r="AD14" t="n">
-        <v>1076443.465169942</v>
+        <v>1301545.288969173</v>
       </c>
       <c r="AE14" t="n">
-        <v>1472837.438379569</v>
+        <v>1780831.684493263</v>
       </c>
       <c r="AF14" t="n">
         <v>3.514512034331625e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.65277777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1332271.900400949</v>
+        <v>1610871.607938192</v>
       </c>
     </row>
     <row r="15">
@@ -7030,28 +7030,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1066.343986467574</v>
+        <v>1291.34432504032</v>
       </c>
       <c r="AB15" t="n">
-        <v>1459.018886061435</v>
+        <v>1766.874275611039</v>
       </c>
       <c r="AC15" t="n">
-        <v>1319.772171321598</v>
+        <v>1598.246274570341</v>
       </c>
       <c r="AD15" t="n">
-        <v>1066343.986467574</v>
+        <v>1291344.32504032</v>
       </c>
       <c r="AE15" t="n">
-        <v>1459018.886061435</v>
+        <v>1766874.275611039</v>
       </c>
       <c r="AF15" t="n">
         <v>3.528750710243375e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>44.47916666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1319772.171321598</v>
+        <v>1598246.274570341</v>
       </c>
     </row>
     <row r="16">
@@ -7136,28 +7136,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1058.237606008576</v>
+        <v>1283.237944581322</v>
       </c>
       <c r="AB16" t="n">
-        <v>1447.927378689169</v>
+        <v>1755.782768238774</v>
       </c>
       <c r="AC16" t="n">
-        <v>1309.739221845913</v>
+        <v>1588.213325094657</v>
       </c>
       <c r="AD16" t="n">
-        <v>1058237.606008576</v>
+        <v>1283237.944581322</v>
       </c>
       <c r="AE16" t="n">
-        <v>1447927.378689169</v>
+        <v>1755782.768238774</v>
       </c>
       <c r="AF16" t="n">
         <v>3.54285377971787e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>45</v>
+        <v>44.30555555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>1309739.221845913</v>
+        <v>1588213.325094657</v>
       </c>
     </row>
     <row r="17">
@@ -7242,28 +7242,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1050.63713188649</v>
+        <v>1275.637470459236</v>
       </c>
       <c r="AB17" t="n">
-        <v>1437.528074686077</v>
+        <v>1745.383464235682</v>
       </c>
       <c r="AC17" t="n">
-        <v>1300.332412821362</v>
+        <v>1578.806516070105</v>
       </c>
       <c r="AD17" t="n">
-        <v>1050637.13188649</v>
+        <v>1275637.470459236</v>
       </c>
       <c r="AE17" t="n">
-        <v>1437528.074686077</v>
+        <v>1745383.464235682</v>
       </c>
       <c r="AF17" t="n">
         <v>3.547735611459042e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>45</v>
+        <v>44.23611111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>1300332.412821362</v>
+        <v>1578806.516070105</v>
       </c>
     </row>
     <row r="18">
@@ -7348,28 +7348,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1041.672157239278</v>
+        <v>1256.952305379237</v>
       </c>
       <c r="AB18" t="n">
-        <v>1425.261800866993</v>
+        <v>1719.817597041922</v>
       </c>
       <c r="AC18" t="n">
-        <v>1289.236814959748</v>
+        <v>1555.680619359397</v>
       </c>
       <c r="AD18" t="n">
-        <v>1041672.157239278</v>
+        <v>1256952.305379237</v>
       </c>
       <c r="AE18" t="n">
-        <v>1425261.800866993</v>
+        <v>1719817.597041922</v>
       </c>
       <c r="AF18" t="n">
         <v>3.562923532431575e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>45</v>
+        <v>44.05092592592593</v>
       </c>
       <c r="AH18" t="n">
-        <v>1289236.814959747</v>
+        <v>1555680.619359398</v>
       </c>
     </row>
     <row r="19">
@@ -7454,28 +7454,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1036.979331182862</v>
+        <v>1252.259479322821</v>
       </c>
       <c r="AB19" t="n">
-        <v>1418.840869223731</v>
+        <v>1713.39666539866</v>
       </c>
       <c r="AC19" t="n">
-        <v>1283.428688020684</v>
+        <v>1549.872492420334</v>
       </c>
       <c r="AD19" t="n">
-        <v>1036979.331182862</v>
+        <v>1252259.479322821</v>
       </c>
       <c r="AE19" t="n">
-        <v>1418840.869223731</v>
+        <v>1713396.66539866</v>
       </c>
       <c r="AF19" t="n">
         <v>3.565906874051179e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>45</v>
+        <v>44.0162037037037</v>
       </c>
       <c r="AH19" t="n">
-        <v>1283428.688020684</v>
+        <v>1549872.492420334</v>
       </c>
     </row>
     <row r="20">
@@ -7560,28 +7560,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1020.264256174366</v>
+        <v>1245.331914554816</v>
       </c>
       <c r="AB20" t="n">
-        <v>1395.970566180041</v>
+        <v>1703.918065660487</v>
       </c>
       <c r="AC20" t="n">
-        <v>1262.741094600812</v>
+        <v>1541.298516937875</v>
       </c>
       <c r="AD20" t="n">
-        <v>1020264.256174366</v>
+        <v>1245331.914554816</v>
       </c>
       <c r="AE20" t="n">
-        <v>1395970.566180041</v>
+        <v>1703918.065660487</v>
       </c>
       <c r="AF20" t="n">
         <v>3.572822802351172e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>44</v>
+        <v>43.93518518518519</v>
       </c>
       <c r="AH20" t="n">
-        <v>1262741.094600812</v>
+        <v>1541298.516937875</v>
       </c>
     </row>
     <row r="21">
@@ -7666,28 +7666,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1012.372279366231</v>
+        <v>1237.439937746681</v>
       </c>
       <c r="AB21" t="n">
-        <v>1385.172415341706</v>
+        <v>1693.119914822153</v>
       </c>
       <c r="AC21" t="n">
-        <v>1252.973504123188</v>
+        <v>1531.530926460251</v>
       </c>
       <c r="AD21" t="n">
-        <v>1012372.279366231</v>
+        <v>1237439.937746681</v>
       </c>
       <c r="AE21" t="n">
-        <v>1385172.415341706</v>
+        <v>1693119.914822153</v>
       </c>
       <c r="AF21" t="n">
         <v>3.579467517776656e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>44</v>
+        <v>43.8425925925926</v>
       </c>
       <c r="AH21" t="n">
-        <v>1252973.504123188</v>
+        <v>1531530.926460251</v>
       </c>
     </row>
     <row r="22">
@@ -7772,28 +7772,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1009.271291997875</v>
+        <v>1234.338950378325</v>
       </c>
       <c r="AB22" t="n">
-        <v>1380.929507618415</v>
+        <v>1688.877007098861</v>
       </c>
       <c r="AC22" t="n">
-        <v>1249.13553355805</v>
+        <v>1527.692955895112</v>
       </c>
       <c r="AD22" t="n">
-        <v>1009271.291997875</v>
+        <v>1234338.950378325</v>
       </c>
       <c r="AE22" t="n">
-        <v>1380929.507618415</v>
+        <v>1688877.007098861</v>
       </c>
       <c r="AF22" t="n">
         <v>3.578518272715872e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>44</v>
+        <v>43.85416666666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>1249135.53355805</v>
+        <v>1527692.955895112</v>
       </c>
     </row>
     <row r="23">
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1010.389290395611</v>
+        <v>1235.456948776061</v>
       </c>
       <c r="AB23" t="n">
-        <v>1382.459202348806</v>
+        <v>1690.406701829252</v>
       </c>
       <c r="AC23" t="n">
-        <v>1250.519236370312</v>
+        <v>1529.076658707374</v>
       </c>
       <c r="AD23" t="n">
-        <v>1010389.290395611</v>
+        <v>1235456.948776061</v>
       </c>
       <c r="AE23" t="n">
-        <v>1382459.202348805</v>
+        <v>1690406.701829252</v>
       </c>
       <c r="AF23" t="n">
         <v>3.578518272715872e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>44</v>
+        <v>43.86574074074074</v>
       </c>
       <c r="AH23" t="n">
-        <v>1250519.236370312</v>
+        <v>1529076.658707374</v>
       </c>
     </row>
   </sheetData>
@@ -8175,28 +8175,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1996.356524411007</v>
+        <v>2354.468512127448</v>
       </c>
       <c r="AB2" t="n">
-        <v>2731.503069733114</v>
+        <v>3221.487690112809</v>
       </c>
       <c r="AC2" t="n">
-        <v>2470.812250446421</v>
+        <v>2914.033426354691</v>
       </c>
       <c r="AD2" t="n">
-        <v>1996356.524411007</v>
+        <v>2354468.512127448</v>
       </c>
       <c r="AE2" t="n">
-        <v>2731503.069733114</v>
+        <v>3221487.690112809</v>
       </c>
       <c r="AF2" t="n">
         <v>2.393195332136021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.75925925925925</v>
       </c>
       <c r="AH2" t="n">
-        <v>2470812.250446421</v>
+        <v>2914033.42635469</v>
       </c>
     </row>
     <row r="3">
@@ -8281,28 +8281,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1359.240208548276</v>
+        <v>1630.159934106038</v>
       </c>
       <c r="AB3" t="n">
-        <v>1859.772418781604</v>
+        <v>2230.456739424485</v>
       </c>
       <c r="AC3" t="n">
-        <v>1682.278349340071</v>
+        <v>2017.585078679507</v>
       </c>
       <c r="AD3" t="n">
-        <v>1359240.208548276</v>
+        <v>1630159.934106037</v>
       </c>
       <c r="AE3" t="n">
-        <v>1859772.418781604</v>
+        <v>2230456.739424485</v>
       </c>
       <c r="AF3" t="n">
         <v>3.151705750505376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.49074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1682278.349340071</v>
+        <v>2017585.078679507</v>
       </c>
     </row>
     <row r="4">
@@ -8387,28 +8387,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200.427703368046</v>
+        <v>1452.053650433296</v>
       </c>
       <c r="AB4" t="n">
-        <v>1642.478142880766</v>
+        <v>1986.763864608758</v>
       </c>
       <c r="AC4" t="n">
-        <v>1485.722334156777</v>
+        <v>1797.149909811095</v>
       </c>
       <c r="AD4" t="n">
-        <v>1200427.703368046</v>
+        <v>1452053.650433296</v>
       </c>
       <c r="AE4" t="n">
-        <v>1642478.142880766</v>
+        <v>1986763.864608758</v>
       </c>
       <c r="AF4" t="n">
         <v>3.435702022171837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.98842592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>1485722.334156777</v>
+        <v>1797149.909811095</v>
       </c>
     </row>
     <row r="5">
@@ -8493,28 +8493,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1129.381286073666</v>
+        <v>1371.326683988808</v>
       </c>
       <c r="AB5" t="n">
-        <v>1545.269300391875</v>
+        <v>1876.309667697003</v>
       </c>
       <c r="AC5" t="n">
-        <v>1397.790967161558</v>
+        <v>1697.237306429158</v>
       </c>
       <c r="AD5" t="n">
-        <v>1129381.286073666</v>
+        <v>1371326.683988808</v>
       </c>
       <c r="AE5" t="n">
-        <v>1545269.300391875</v>
+        <v>1876309.667697003</v>
       </c>
       <c r="AF5" t="n">
         <v>3.583635294299038e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.91666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1397790.967161559</v>
+        <v>1697237.306429158</v>
       </c>
     </row>
     <row r="6">
@@ -8599,28 +8599,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1088.601078652923</v>
+        <v>1320.900092836737</v>
       </c>
       <c r="AB6" t="n">
-        <v>1489.472021503037</v>
+        <v>1807.313781018547</v>
       </c>
       <c r="AC6" t="n">
-        <v>1347.318902257898</v>
+        <v>1634.82629033896</v>
       </c>
       <c r="AD6" t="n">
-        <v>1088601.078652923</v>
+        <v>1320900.092836737</v>
       </c>
       <c r="AE6" t="n">
-        <v>1489472.021503037</v>
+        <v>1807313.781018547</v>
       </c>
       <c r="AF6" t="n">
         <v>3.675629906855571e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.72453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1347318.902257898</v>
+        <v>1634826.29033896</v>
       </c>
     </row>
     <row r="7">
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1073.90268187282</v>
+        <v>1296.487992517602</v>
       </c>
       <c r="AB7" t="n">
-        <v>1469.361026580998</v>
+        <v>1773.91206837605</v>
       </c>
       <c r="AC7" t="n">
-        <v>1329.12727246526</v>
+        <v>1604.612390271464</v>
       </c>
       <c r="AD7" t="n">
-        <v>1073902.68187282</v>
+        <v>1296487.992517602</v>
       </c>
       <c r="AE7" t="n">
-        <v>1469361.026580998</v>
+        <v>1773912.06837605</v>
       </c>
       <c r="AF7" t="n">
         <v>3.718066131357456e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.19212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1329127.27246526</v>
+        <v>1604612.390271464</v>
       </c>
     </row>
     <row r="8">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1041.535672002243</v>
+        <v>1264.086817228245</v>
       </c>
       <c r="AB8" t="n">
-        <v>1425.075055744379</v>
+        <v>1729.579350906183</v>
       </c>
       <c r="AC8" t="n">
-        <v>1289.067892529537</v>
+        <v>1564.510725135562</v>
       </c>
       <c r="AD8" t="n">
-        <v>1041535.672002243</v>
+        <v>1264086.817228245</v>
       </c>
       <c r="AE8" t="n">
-        <v>1425075.055744379</v>
+        <v>1729579.350906183</v>
       </c>
       <c r="AF8" t="n">
         <v>3.779494792000045e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.43981481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>1289067.892529537</v>
+        <v>1564510.725135562</v>
       </c>
     </row>
     <row r="9">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1016.606683933636</v>
+        <v>1248.837367279888</v>
       </c>
       <c r="AB9" t="n">
-        <v>1390.966114479576</v>
+        <v>1708.714380728591</v>
       </c>
       <c r="AC9" t="n">
-        <v>1258.214260746847</v>
+        <v>1545.637078427549</v>
       </c>
       <c r="AD9" t="n">
-        <v>1016606.683933636</v>
+        <v>1248837.367279888</v>
       </c>
       <c r="AE9" t="n">
-        <v>1390966.114479576</v>
+        <v>1708714.380728591</v>
       </c>
       <c r="AF9" t="n">
         <v>3.817034529059404e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.98842592592592</v>
       </c>
       <c r="AH9" t="n">
-        <v>1258214.260746847</v>
+        <v>1545637.078427549</v>
       </c>
     </row>
     <row r="10">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1004.905268061298</v>
+        <v>1227.523733095003</v>
       </c>
       <c r="AB10" t="n">
-        <v>1374.955721053008</v>
+        <v>1679.552126145653</v>
       </c>
       <c r="AC10" t="n">
-        <v>1243.731876798183</v>
+        <v>1519.258028492526</v>
       </c>
       <c r="AD10" t="n">
-        <v>1004905.268061298</v>
+        <v>1227523.733095003</v>
       </c>
       <c r="AE10" t="n">
-        <v>1374955.721053008</v>
+        <v>1679552.126145653</v>
       </c>
       <c r="AF10" t="n">
         <v>3.84166534467938e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.69907407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>1243731.876798183</v>
+        <v>1519258.028492526</v>
       </c>
     </row>
     <row r="11">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>991.3431856366608</v>
+        <v>1213.860165443881</v>
       </c>
       <c r="AB11" t="n">
-        <v>1356.39948156277</v>
+        <v>1660.857030091327</v>
       </c>
       <c r="AC11" t="n">
-        <v>1226.946618761048</v>
+        <v>1502.347166166892</v>
       </c>
       <c r="AD11" t="n">
-        <v>991343.1856366608</v>
+        <v>1213860.165443881</v>
       </c>
       <c r="AE11" t="n">
-        <v>1356399.48156277</v>
+        <v>1660857.030091327</v>
       </c>
       <c r="AF11" t="n">
         <v>3.865702646669959e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.4212962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>1226946.618761048</v>
+        <v>1502347.166166892</v>
       </c>
     </row>
     <row r="12">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>982.820570371735</v>
+        <v>1205.337550178956</v>
       </c>
       <c r="AB12" t="n">
-        <v>1344.73846336605</v>
+        <v>1649.196011894606</v>
       </c>
       <c r="AC12" t="n">
-        <v>1216.39851177468</v>
+        <v>1491.799059180524</v>
       </c>
       <c r="AD12" t="n">
-        <v>982820.570371735</v>
+        <v>1205337.550178956</v>
       </c>
       <c r="AE12" t="n">
-        <v>1344738.46336605</v>
+        <v>1649196.011894606</v>
       </c>
       <c r="AF12" t="n">
         <v>3.882617785107772e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.23611111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>1216398.51177468</v>
+        <v>1491799.059180524</v>
       </c>
     </row>
     <row r="13">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>969.3843197042399</v>
+        <v>1182.289081198914</v>
       </c>
       <c r="AB13" t="n">
-        <v>1326.354392437239</v>
+        <v>1617.660079809426</v>
       </c>
       <c r="AC13" t="n">
-        <v>1199.768990773109</v>
+        <v>1463.272872192595</v>
       </c>
       <c r="AD13" t="n">
-        <v>969384.31970424</v>
+        <v>1182289.081198914</v>
       </c>
       <c r="AE13" t="n">
-        <v>1326354.392437239</v>
+        <v>1617660.079809426</v>
       </c>
       <c r="AF13" t="n">
         <v>3.903094005321968e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.00462962962964</v>
       </c>
       <c r="AH13" t="n">
-        <v>1199768.990773109</v>
+        <v>1463272.872192595</v>
       </c>
     </row>
     <row r="14">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>948.7274902933555</v>
+        <v>1171.311789908281</v>
       </c>
       <c r="AB14" t="n">
-        <v>1298.09080712227</v>
+        <v>1602.640465581668</v>
       </c>
       <c r="AC14" t="n">
-        <v>1174.20284237241</v>
+        <v>1449.686708866573</v>
       </c>
       <c r="AD14" t="n">
-        <v>948727.4902933554</v>
+        <v>1171311.789908281</v>
       </c>
       <c r="AE14" t="n">
-        <v>1298090.80712227</v>
+        <v>1602640.465581668</v>
       </c>
       <c r="AF14" t="n">
         <v>3.916448061983401e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.85416666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1174202.84237241</v>
+        <v>1449686.708866573</v>
       </c>
     </row>
     <row r="15">
@@ -9553,28 +9553,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>941.1243483915879</v>
+        <v>1163.708648006513</v>
       </c>
       <c r="AB15" t="n">
-        <v>1287.687852945324</v>
+        <v>1592.237511404722</v>
       </c>
       <c r="AC15" t="n">
-        <v>1164.792731541474</v>
+        <v>1440.276598035638</v>
       </c>
       <c r="AD15" t="n">
-        <v>941124.3483915878</v>
+        <v>1163708.648006513</v>
       </c>
       <c r="AE15" t="n">
-        <v>1287687.852945324</v>
+        <v>1592237.511404722</v>
       </c>
       <c r="AF15" t="n">
         <v>3.92446049598026e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.76157407407408</v>
       </c>
       <c r="AH15" t="n">
-        <v>1164792.731541475</v>
+        <v>1440276.598035638</v>
       </c>
     </row>
     <row r="16">
@@ -9659,28 +9659,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>940.7432376334432</v>
+        <v>1163.327537248368</v>
       </c>
       <c r="AB16" t="n">
-        <v>1287.166400392611</v>
+        <v>1591.716058852009</v>
       </c>
       <c r="AC16" t="n">
-        <v>1164.321045688529</v>
+        <v>1439.804912182692</v>
       </c>
       <c r="AD16" t="n">
-        <v>940743.2376334432</v>
+        <v>1163327.537248368</v>
       </c>
       <c r="AE16" t="n">
-        <v>1287166.400392611</v>
+        <v>1591716.058852009</v>
       </c>
       <c r="AF16" t="n">
         <v>3.920751035796529e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.7962962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>1164321.045688529</v>
+        <v>1439804.912182692</v>
       </c>
     </row>
   </sheetData>
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1069.158201200012</v>
+        <v>1331.043359074793</v>
       </c>
       <c r="AB2" t="n">
-        <v>1462.869418812748</v>
+        <v>1821.192245374779</v>
       </c>
       <c r="AC2" t="n">
-        <v>1323.255214631383</v>
+        <v>1647.380213535579</v>
       </c>
       <c r="AD2" t="n">
-        <v>1069158.201200012</v>
+        <v>1331043.359074793</v>
       </c>
       <c r="AE2" t="n">
-        <v>1462869.418812748</v>
+        <v>1821192.245374779</v>
       </c>
       <c r="AF2" t="n">
         <v>4.446524773960158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.91203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1323255.214631383</v>
+        <v>1647380.213535579</v>
       </c>
     </row>
     <row r="3">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>883.7725851558766</v>
+        <v>1108.202661682828</v>
       </c>
       <c r="AB3" t="n">
-        <v>1209.216640305002</v>
+        <v>1516.291772165364</v>
       </c>
       <c r="AC3" t="n">
-        <v>1093.810701300506</v>
+        <v>1371.579013558769</v>
       </c>
       <c r="AD3" t="n">
-        <v>883772.5851558766</v>
+        <v>1108202.661682828</v>
       </c>
       <c r="AE3" t="n">
-        <v>1209216.640305002</v>
+        <v>1516291.772165364</v>
       </c>
       <c r="AF3" t="n">
         <v>5.088961655600792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.10648148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>1093810.701300506</v>
+        <v>1371579.013558769</v>
       </c>
     </row>
     <row r="4">
@@ -10168,28 +10168,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>819.2262340089337</v>
+        <v>1034.300828796159</v>
       </c>
       <c r="AB4" t="n">
-        <v>1120.901475081714</v>
+        <v>1415.176024091058</v>
       </c>
       <c r="AC4" t="n">
-        <v>1013.924211495016</v>
+        <v>1280.113610563831</v>
       </c>
       <c r="AD4" t="n">
-        <v>819226.2340089338</v>
+        <v>1034300.828796159</v>
       </c>
       <c r="AE4" t="n">
-        <v>1120901.475081714</v>
+        <v>1415176.024091058</v>
       </c>
       <c r="AF4" t="n">
         <v>5.321953754841835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.0462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1013924.211495016</v>
+        <v>1280113.610563831</v>
       </c>
     </row>
     <row r="5">
@@ -10274,28 +10274,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>783.6229699746624</v>
+        <v>998.6633993431062</v>
       </c>
       <c r="AB5" t="n">
-        <v>1072.18751852487</v>
+        <v>1366.415320900966</v>
       </c>
       <c r="AC5" t="n">
-        <v>969.859446581489</v>
+        <v>1236.006560450125</v>
       </c>
       <c r="AD5" t="n">
-        <v>783622.9699746624</v>
+        <v>998663.3993431062</v>
       </c>
       <c r="AE5" t="n">
-        <v>1072187.51852487</v>
+        <v>1366415.320900966</v>
       </c>
       <c r="AF5" t="n">
         <v>5.420535300831823e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.22453703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>969859.4465814891</v>
+        <v>1236006.560450125</v>
       </c>
     </row>
     <row r="6">
@@ -10380,28 +10380,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>780.7191709137541</v>
+        <v>986.4724493800329</v>
       </c>
       <c r="AB6" t="n">
-        <v>1068.214412543162</v>
+        <v>1349.735125334734</v>
       </c>
       <c r="AC6" t="n">
-        <v>966.2655282583859</v>
+        <v>1220.918299337933</v>
       </c>
       <c r="AD6" t="n">
-        <v>780719.170913754</v>
+        <v>986472.449380033</v>
       </c>
       <c r="AE6" t="n">
-        <v>1068214.412543162</v>
+        <v>1349735.125334734</v>
       </c>
       <c r="AF6" t="n">
         <v>5.436482315624321e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.09722222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>966265.5282583858</v>
+        <v>1220918.299337933</v>
       </c>
     </row>
   </sheetData>
@@ -10677,28 +10677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1346.628640823842</v>
+        <v>1631.004259451724</v>
       </c>
       <c r="AB2" t="n">
-        <v>1842.516715437933</v>
+        <v>2231.611982611458</v>
       </c>
       <c r="AC2" t="n">
-        <v>1666.669506104988</v>
+        <v>2018.630067078109</v>
       </c>
       <c r="AD2" t="n">
-        <v>1346628.640823842</v>
+        <v>1631004.259451724</v>
       </c>
       <c r="AE2" t="n">
-        <v>1842516.715437933</v>
+        <v>2231611.982611458</v>
       </c>
       <c r="AF2" t="n">
         <v>3.504537696848197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.23611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1666669.506104988</v>
+        <v>2018630.067078109</v>
       </c>
     </row>
     <row r="3">
@@ -10783,28 +10783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1040.269428388789</v>
+        <v>1277.232196374275</v>
       </c>
       <c r="AB3" t="n">
-        <v>1423.342525369724</v>
+        <v>1747.56543858698</v>
       </c>
       <c r="AC3" t="n">
-        <v>1287.500712422218</v>
+        <v>1580.780245851736</v>
       </c>
       <c r="AD3" t="n">
-        <v>1040269.428388788</v>
+        <v>1277232.196374275</v>
       </c>
       <c r="AE3" t="n">
-        <v>1423342.525369724</v>
+        <v>1747565.438586981</v>
       </c>
       <c r="AF3" t="n">
         <v>4.197912453041397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.44444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>1287500.712422218</v>
+        <v>1580780.245851736</v>
       </c>
     </row>
     <row r="4">
@@ -10889,28 +10889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>950.5593590913767</v>
+        <v>1178.106876756089</v>
       </c>
       <c r="AB4" t="n">
-        <v>1300.597250828071</v>
+        <v>1611.937803184915</v>
       </c>
       <c r="AC4" t="n">
-        <v>1176.470074608745</v>
+        <v>1458.096721617861</v>
       </c>
       <c r="AD4" t="n">
-        <v>950559.3590913767</v>
+        <v>1178106.876756089</v>
       </c>
       <c r="AE4" t="n">
-        <v>1300597.250828071</v>
+        <v>1611937.803184915</v>
       </c>
       <c r="AF4" t="n">
         <v>4.446853001824677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.67824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1176470.074608745</v>
+        <v>1458096.721617861</v>
       </c>
     </row>
     <row r="5">
@@ -10995,28 +10995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>907.7789160885742</v>
+        <v>1125.776543817103</v>
       </c>
       <c r="AB5" t="n">
-        <v>1242.063161371693</v>
+        <v>1540.337133006441</v>
       </c>
       <c r="AC5" t="n">
-        <v>1123.522396496973</v>
+        <v>1393.32951890905</v>
       </c>
       <c r="AD5" t="n">
-        <v>907778.9160885742</v>
+        <v>1125776.543817103</v>
       </c>
       <c r="AE5" t="n">
-        <v>1242063.161371693</v>
+        <v>1540337.133006441</v>
       </c>
       <c r="AF5" t="n">
         <v>4.577062539588843e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.3587962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1123522.396496973</v>
+        <v>1393329.51890905</v>
       </c>
     </row>
     <row r="6">
@@ -11101,28 +11101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>876.9492273873941</v>
+        <v>1095.014174923628</v>
       </c>
       <c r="AB6" t="n">
-        <v>1199.880621180864</v>
+        <v>1498.246702746455</v>
       </c>
       <c r="AC6" t="n">
-        <v>1085.365698738391</v>
+        <v>1355.256140238786</v>
       </c>
       <c r="AD6" t="n">
-        <v>876949.2273873941</v>
+        <v>1095014.174923628</v>
       </c>
       <c r="AE6" t="n">
-        <v>1199880.621180865</v>
+        <v>1498246.702746454</v>
       </c>
       <c r="AF6" t="n">
         <v>4.645395644117972e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1085365.698738391</v>
+        <v>1355256.140238786</v>
       </c>
     </row>
     <row r="7">
@@ -11207,28 +11207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>856.5560000431304</v>
+        <v>1065.105223061962</v>
       </c>
       <c r="AB7" t="n">
-        <v>1171.977707842749</v>
+        <v>1457.323955319492</v>
       </c>
       <c r="AC7" t="n">
-        <v>1060.125800287281</v>
+        <v>1318.239002390816</v>
       </c>
       <c r="AD7" t="n">
-        <v>856556.0000431305</v>
+        <v>1065105.223061962</v>
       </c>
       <c r="AE7" t="n">
-        <v>1171977.707842749</v>
+        <v>1457323.955319492</v>
       </c>
       <c r="AF7" t="n">
         <v>4.703864389725571e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.13194444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>1060125.80028728</v>
+        <v>1318239.002390816</v>
       </c>
     </row>
     <row r="8">
@@ -11313,28 +11313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>830.655312303232</v>
+        <v>1048.686094420685</v>
       </c>
       <c r="AB8" t="n">
-        <v>1136.539244219322</v>
+        <v>1434.858579151664</v>
       </c>
       <c r="AC8" t="n">
-        <v>1028.069533893877</v>
+        <v>1297.917690194093</v>
       </c>
       <c r="AD8" t="n">
-        <v>830655.312303232</v>
+        <v>1048686.094420685</v>
       </c>
       <c r="AE8" t="n">
-        <v>1136539.244219322</v>
+        <v>1434858.579151664</v>
       </c>
       <c r="AF8" t="n">
         <v>4.742066361548943e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.77314814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>1028069.533893877</v>
+        <v>1297917.690194092</v>
       </c>
     </row>
     <row r="9">
@@ -11419,28 +11419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>831.1313187652751</v>
+        <v>1049.162100882728</v>
       </c>
       <c r="AB9" t="n">
-        <v>1137.190537260612</v>
+        <v>1435.509872192954</v>
       </c>
       <c r="AC9" t="n">
-        <v>1028.658668441402</v>
+        <v>1298.506824741617</v>
       </c>
       <c r="AD9" t="n">
-        <v>831131.3187652751</v>
+        <v>1049162.100882728</v>
       </c>
       <c r="AE9" t="n">
-        <v>1137190.537260612</v>
+        <v>1435509.872192954</v>
       </c>
       <c r="AF9" t="n">
         <v>4.741348953627377e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.78472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1028658.668441402</v>
+        <v>1298506.824741618</v>
       </c>
     </row>
   </sheetData>
@@ -11716,28 +11716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>898.6049616106249</v>
+        <v>1139.103119162451</v>
       </c>
       <c r="AB2" t="n">
-        <v>1229.510952128655</v>
+        <v>1558.571141320956</v>
       </c>
       <c r="AC2" t="n">
-        <v>1112.168152486955</v>
+        <v>1409.823299061618</v>
       </c>
       <c r="AD2" t="n">
-        <v>898604.9616106248</v>
+        <v>1139103.119162451</v>
       </c>
       <c r="AE2" t="n">
-        <v>1229510.952128655</v>
+        <v>1558571.141320956</v>
       </c>
       <c r="AF2" t="n">
         <v>5.433994836166658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.52083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1112168.152486955</v>
+        <v>1409823.299061619</v>
       </c>
     </row>
     <row r="3">
@@ -11822,28 +11822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>762.4351873104163</v>
+        <v>975.112295481006</v>
       </c>
       <c r="AB3" t="n">
-        <v>1043.197459544648</v>
+        <v>1334.191661595466</v>
       </c>
       <c r="AC3" t="n">
-        <v>943.6361581425359</v>
+        <v>1206.858281962552</v>
       </c>
       <c r="AD3" t="n">
-        <v>762435.1873104163</v>
+        <v>975112.2954810059</v>
       </c>
       <c r="AE3" t="n">
-        <v>1043197.459544648</v>
+        <v>1334191.661595467</v>
       </c>
       <c r="AF3" t="n">
         <v>6.03721855139155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.47453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>943636.1581425359</v>
+        <v>1206858.281962552</v>
       </c>
     </row>
     <row r="4">
@@ -11928,28 +11928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>730.3952695571844</v>
+        <v>943.1396975354787</v>
       </c>
       <c r="AB4" t="n">
-        <v>999.3590305732647</v>
+        <v>1290.445342554925</v>
       </c>
       <c r="AC4" t="n">
-        <v>903.9816073045603</v>
+        <v>1167.287050212896</v>
       </c>
       <c r="AD4" t="n">
-        <v>730395.2695571844</v>
+        <v>943139.6975354787</v>
       </c>
       <c r="AE4" t="n">
-        <v>999359.0305732647</v>
+        <v>1290445.342554925</v>
       </c>
       <c r="AF4" t="n">
         <v>6.165074462719201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.53703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>903981.6073045603</v>
+        <v>1167287.050212896</v>
       </c>
     </row>
   </sheetData>
@@ -12225,28 +12225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2134.067497682114</v>
+        <v>2502.871137592268</v>
       </c>
       <c r="AB2" t="n">
-        <v>2919.925298742004</v>
+        <v>3424.538709335554</v>
       </c>
       <c r="AC2" t="n">
-        <v>2641.251726370962</v>
+        <v>3097.705541286704</v>
       </c>
       <c r="AD2" t="n">
-        <v>2134067.497682114</v>
+        <v>2502871.137592268</v>
       </c>
       <c r="AE2" t="n">
-        <v>2919925.298742004</v>
+        <v>3424538.709335554</v>
       </c>
       <c r="AF2" t="n">
         <v>2.2589306098198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.18981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>2641251.726370962</v>
+        <v>3097705.541286704</v>
       </c>
     </row>
     <row r="3">
@@ -12331,28 +12331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1416.196112944423</v>
+        <v>1687.944631285088</v>
       </c>
       <c r="AB3" t="n">
-        <v>1937.701999893576</v>
+        <v>2309.520311385781</v>
       </c>
       <c r="AC3" t="n">
-        <v>1752.77044060557</v>
+        <v>2089.102934299237</v>
       </c>
       <c r="AD3" t="n">
-        <v>1416196.112944423</v>
+        <v>1687944.631285088</v>
       </c>
       <c r="AE3" t="n">
-        <v>1937701.999893576</v>
+        <v>2309520.311385782</v>
       </c>
       <c r="AF3" t="n">
         <v>3.025614641548268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.39351851851853</v>
       </c>
       <c r="AH3" t="n">
-        <v>1752770.44060557</v>
+        <v>2089102.934299237</v>
       </c>
     </row>
     <row r="4">
@@ -12437,28 +12437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1248.660305352071</v>
+        <v>1501.058286102786</v>
       </c>
       <c r="AB4" t="n">
-        <v>1708.47211678753</v>
+        <v>2053.8141690637</v>
       </c>
       <c r="AC4" t="n">
-        <v>1545.417935817004</v>
+        <v>1857.80102731455</v>
       </c>
       <c r="AD4" t="n">
-        <v>1248660.305352071</v>
+        <v>1501058.286102786</v>
       </c>
       <c r="AE4" t="n">
-        <v>1708472.11678753</v>
+        <v>2053814.1690637</v>
       </c>
       <c r="AF4" t="n">
         <v>3.309555602118528e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.63657407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>1545417.935817004</v>
+        <v>1857801.02731455</v>
       </c>
     </row>
     <row r="5">
@@ -12543,28 +12543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1172.106016410167</v>
+        <v>1414.69358323557</v>
       </c>
       <c r="AB5" t="n">
-        <v>1603.72716132035</v>
+        <v>1935.646172458991</v>
       </c>
       <c r="AC5" t="n">
-        <v>1450.669691889142</v>
+        <v>1750.910818455969</v>
       </c>
       <c r="AD5" t="n">
-        <v>1172106.016410167</v>
+        <v>1414693.58323557</v>
       </c>
       <c r="AE5" t="n">
-        <v>1603727.16132035</v>
+        <v>1935646.17245899</v>
       </c>
       <c r="AF5" t="n">
         <v>3.464919523939991e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.36805555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1450669.691889142</v>
+        <v>1750910.818455969</v>
       </c>
     </row>
     <row r="6">
@@ -12649,28 +12649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1128.116028187224</v>
+        <v>1361.028831732581</v>
       </c>
       <c r="AB6" t="n">
-        <v>1543.538118732406</v>
+        <v>1862.219691930855</v>
       </c>
       <c r="AC6" t="n">
-        <v>1396.22500704994</v>
+        <v>1684.492058174726</v>
       </c>
       <c r="AD6" t="n">
-        <v>1128116.028187224</v>
+        <v>1361028.831732581</v>
       </c>
       <c r="AE6" t="n">
-        <v>1543538.118732406</v>
+        <v>1862219.691930855</v>
       </c>
       <c r="AF6" t="n">
         <v>3.561931478851809e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.04861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1396225.00704994</v>
+        <v>1684492.058174727</v>
       </c>
     </row>
     <row r="7">
@@ -12755,28 +12755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1090.316062835892</v>
+        <v>1313.554103101204</v>
       </c>
       <c r="AB7" t="n">
-        <v>1491.818538521938</v>
+        <v>1797.262673780196</v>
       </c>
       <c r="AC7" t="n">
-        <v>1349.441470985873</v>
+        <v>1625.734446668619</v>
       </c>
       <c r="AD7" t="n">
-        <v>1090316.062835892</v>
+        <v>1313554.103101204</v>
       </c>
       <c r="AE7" t="n">
-        <v>1491818.538521938</v>
+        <v>1797262.673780196</v>
       </c>
       <c r="AF7" t="n">
         <v>3.638093103155713e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.06481481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>1349441.470985873</v>
+        <v>1625734.446668619</v>
       </c>
     </row>
     <row r="8">
@@ -12861,28 +12861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1069.962000266451</v>
+        <v>1302.907958200732</v>
       </c>
       <c r="AB8" t="n">
-        <v>1463.969212156563</v>
+        <v>1782.696148652606</v>
       </c>
       <c r="AC8" t="n">
-        <v>1324.250045242033</v>
+        <v>1612.558130254959</v>
       </c>
       <c r="AD8" t="n">
-        <v>1069962.000266451</v>
+        <v>1302907.958200732</v>
       </c>
       <c r="AE8" t="n">
-        <v>1463969.212156563</v>
+        <v>1782696.148652606</v>
       </c>
       <c r="AF8" t="n">
         <v>3.665459162078599e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.71759259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>1324250.045242033</v>
+        <v>1612558.130254959</v>
       </c>
     </row>
     <row r="9">
@@ -12967,28 +12967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1055.081516605075</v>
+        <v>1278.285391451606</v>
       </c>
       <c r="AB9" t="n">
-        <v>1443.609077930461</v>
+        <v>1749.006466555471</v>
       </c>
       <c r="AC9" t="n">
-        <v>1305.833053650843</v>
+        <v>1582.083744133409</v>
       </c>
       <c r="AD9" t="n">
-        <v>1055081.516605075</v>
+        <v>1278285.391451606</v>
       </c>
       <c r="AE9" t="n">
-        <v>1443609.077930461</v>
+        <v>1749006.466555471</v>
       </c>
       <c r="AF9" t="n">
         <v>3.701657652717338e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.27777777777777</v>
       </c>
       <c r="AH9" t="n">
-        <v>1305833.053650843</v>
+        <v>1582083.744133409</v>
       </c>
     </row>
     <row r="10">
@@ -13073,28 +13073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1031.697049024249</v>
+        <v>1264.608841539748</v>
       </c>
       <c r="AB10" t="n">
-        <v>1411.613417736474</v>
+        <v>1730.293607599269</v>
       </c>
       <c r="AC10" t="n">
-        <v>1276.891014359579</v>
+        <v>1565.156814172325</v>
       </c>
       <c r="AD10" t="n">
-        <v>1031697.049024248</v>
+        <v>1264608.841539748</v>
       </c>
       <c r="AE10" t="n">
-        <v>1411613.417736474</v>
+        <v>1730293.607599269</v>
       </c>
       <c r="AF10" t="n">
         <v>3.733077942591761e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.89583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1276891.014359579</v>
+        <v>1565156.814172325</v>
       </c>
     </row>
     <row r="11">
@@ -13179,28 +13179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1019.36672164605</v>
+        <v>1242.637916300285</v>
       </c>
       <c r="AB11" t="n">
-        <v>1394.742519841971</v>
+        <v>1700.232018397823</v>
       </c>
       <c r="AC11" t="n">
-        <v>1261.630251281674</v>
+        <v>1537.964260852559</v>
       </c>
       <c r="AD11" t="n">
-        <v>1019366.72164605</v>
+        <v>1242637.916300285</v>
       </c>
       <c r="AE11" t="n">
-        <v>1394742.519841971</v>
+        <v>1700232.018397823</v>
       </c>
       <c r="AF11" t="n">
         <v>3.757982504151214e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.59490740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>1261630.251281674</v>
+        <v>1537964.260852559</v>
       </c>
     </row>
     <row r="12">
@@ -13285,28 +13285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1010.274357852208</v>
+        <v>1233.444067279958</v>
       </c>
       <c r="AB12" t="n">
-        <v>1382.301946572457</v>
+        <v>1687.652588564219</v>
       </c>
       <c r="AC12" t="n">
-        <v>1250.376988864548</v>
+        <v>1526.585394146934</v>
       </c>
       <c r="AD12" t="n">
-        <v>1010274.357852208</v>
+        <v>1233444.067279958</v>
       </c>
       <c r="AE12" t="n">
-        <v>1382301.946572457</v>
+        <v>1687652.588564219</v>
       </c>
       <c r="AF12" t="n">
         <v>3.772751488331818e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.4212962962963</v>
       </c>
       <c r="AH12" t="n">
-        <v>1250376.988864548</v>
+        <v>1526585.394146934</v>
       </c>
     </row>
     <row r="13">
@@ -13391,28 +13391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1001.425986863882</v>
+        <v>1224.595696291632</v>
       </c>
       <c r="AB13" t="n">
-        <v>1370.195215023651</v>
+        <v>1675.545857015413</v>
       </c>
       <c r="AC13" t="n">
-        <v>1239.425706782855</v>
+        <v>1515.634112065242</v>
       </c>
       <c r="AD13" t="n">
-        <v>1001425.986863882</v>
+        <v>1224595.696291632</v>
       </c>
       <c r="AE13" t="n">
-        <v>1370195.215023651</v>
+        <v>1675545.857015413</v>
       </c>
       <c r="AF13" t="n">
         <v>3.786651708737094e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.25925925925927</v>
       </c>
       <c r="AH13" t="n">
-        <v>1239425.706782855</v>
+        <v>1515634.112065242</v>
       </c>
     </row>
     <row r="14">
@@ -13497,28 +13497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>991.4523646084843</v>
+        <v>1204.981476174969</v>
       </c>
       <c r="AB14" t="n">
-        <v>1356.548865048656</v>
+        <v>1648.708815733475</v>
       </c>
       <c r="AC14" t="n">
-        <v>1227.081745296701</v>
+        <v>1491.358360337227</v>
       </c>
       <c r="AD14" t="n">
-        <v>991452.3646084843</v>
+        <v>1204981.476174969</v>
       </c>
       <c r="AE14" t="n">
-        <v>1356548.865048656</v>
+        <v>1648708.815733475</v>
       </c>
       <c r="AF14" t="n">
         <v>3.79881440159171e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.12037037037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>1227081.745296701</v>
+        <v>1491358.360337227</v>
       </c>
     </row>
     <row r="15">
@@ -13603,28 +13603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>970.5130486592465</v>
+        <v>1193.750077894701</v>
       </c>
       <c r="AB15" t="n">
-        <v>1327.898769189486</v>
+        <v>1633.34152111209</v>
       </c>
       <c r="AC15" t="n">
-        <v>1201.165974375668</v>
+        <v>1477.457698746374</v>
       </c>
       <c r="AD15" t="n">
-        <v>970513.0486592464</v>
+        <v>1193750.077894701</v>
       </c>
       <c r="AE15" t="n">
-        <v>1327898.769189486</v>
+        <v>1633341.52111209</v>
       </c>
       <c r="AF15" t="n">
         <v>3.813004209922095e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.94675925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>1201165.974375668</v>
+        <v>1477457.698746374</v>
       </c>
     </row>
     <row r="16">
@@ -13709,28 +13709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>959.5115649292334</v>
+        <v>1182.748594164687</v>
       </c>
       <c r="AB16" t="n">
-        <v>1312.846053798874</v>
+        <v>1618.288805721478</v>
       </c>
       <c r="AC16" t="n">
-        <v>1187.549869015318</v>
+        <v>1463.841593386023</v>
       </c>
       <c r="AD16" t="n">
-        <v>959511.5649292334</v>
+        <v>1182748.594164687</v>
       </c>
       <c r="AE16" t="n">
-        <v>1312846.053798874</v>
+        <v>1618288.805721478</v>
       </c>
       <c r="AF16" t="n">
         <v>3.831537837129129e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.73842592592592</v>
       </c>
       <c r="AH16" t="n">
-        <v>1187549.869015318</v>
+        <v>1463841.593386023</v>
       </c>
     </row>
     <row r="17">
@@ -13815,28 +13815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>957.4191655001605</v>
+        <v>1180.656194735615</v>
       </c>
       <c r="AB17" t="n">
-        <v>1309.983140589869</v>
+        <v>1615.425892512473</v>
       </c>
       <c r="AC17" t="n">
-        <v>1184.960188224856</v>
+        <v>1461.251912595562</v>
       </c>
       <c r="AD17" t="n">
-        <v>957419.1655001605</v>
+        <v>1180656.194735615</v>
       </c>
       <c r="AE17" t="n">
-        <v>1309983.140589869</v>
+        <v>1615425.892512473</v>
       </c>
       <c r="AF17" t="n">
         <v>3.829510721653359e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>44</v>
+        <v>43.76157407407408</v>
       </c>
       <c r="AH17" t="n">
-        <v>1184960.188224856</v>
+        <v>1461251.912595562</v>
       </c>
     </row>
     <row r="18">
@@ -13921,28 +13921,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>958.3948523594593</v>
+        <v>1181.631881594913</v>
       </c>
       <c r="AB18" t="n">
-        <v>1311.318118395028</v>
+        <v>1616.760870317632</v>
       </c>
       <c r="AC18" t="n">
-        <v>1186.167757621944</v>
+        <v>1462.459481992649</v>
       </c>
       <c r="AD18" t="n">
-        <v>958394.8523594593</v>
+        <v>1181631.881594914</v>
       </c>
       <c r="AE18" t="n">
-        <v>1311318.118395028</v>
+        <v>1616760.870317632</v>
       </c>
       <c r="AF18" t="n">
         <v>3.827338812215035e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>44</v>
+        <v>43.78472222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>1186167.757621944</v>
+        <v>1462459.481992649</v>
       </c>
     </row>
   </sheetData>
@@ -14218,28 +14218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>804.2198347577061</v>
+        <v>1033.923628417138</v>
       </c>
       <c r="AB2" t="n">
-        <v>1100.369057590573</v>
+        <v>1414.659921891575</v>
       </c>
       <c r="AC2" t="n">
-        <v>995.3513791118006</v>
+        <v>1279.646764433913</v>
       </c>
       <c r="AD2" t="n">
-        <v>804219.834757706</v>
+        <v>1033923.628417138</v>
       </c>
       <c r="AE2" t="n">
-        <v>1100369.057590574</v>
+        <v>1414659.921891575</v>
       </c>
       <c r="AF2" t="n">
         <v>6.164073003227613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.73842592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>995351.3791118006</v>
+        <v>1279646.764433913</v>
       </c>
     </row>
     <row r="3">
@@ -14324,28 +14324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>712.3538593307356</v>
+        <v>923.6112964562059</v>
       </c>
       <c r="AB3" t="n">
-        <v>974.6739771705921</v>
+        <v>1263.725722666012</v>
       </c>
       <c r="AC3" t="n">
-        <v>881.6524607529487</v>
+        <v>1143.117513344959</v>
       </c>
       <c r="AD3" t="n">
-        <v>712353.8593307356</v>
+        <v>923611.2964562059</v>
       </c>
       <c r="AE3" t="n">
-        <v>974673.9771705922</v>
+        <v>1263725.722666012</v>
       </c>
       <c r="AF3" t="n">
         <v>6.661631971907867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.09259259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>881652.4607529488</v>
+        <v>1143117.513344959</v>
       </c>
     </row>
     <row r="4">
@@ -14430,28 +14430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>714.934810810111</v>
+        <v>926.1922479355812</v>
       </c>
       <c r="AB4" t="n">
-        <v>978.2053488482167</v>
+        <v>1267.257094343637</v>
       </c>
       <c r="AC4" t="n">
-        <v>884.8468032739721</v>
+        <v>1146.311855865982</v>
       </c>
       <c r="AD4" t="n">
-        <v>714934.810810111</v>
+        <v>926192.2479355813</v>
       </c>
       <c r="AE4" t="n">
-        <v>978205.3488482167</v>
+        <v>1267257.094343637</v>
       </c>
       <c r="AF4" t="n">
         <v>6.668380293861798e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.0462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>884846.8032739721</v>
+        <v>1146311.855865982</v>
       </c>
     </row>
   </sheetData>
@@ -14727,28 +14727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1650.734365575652</v>
+        <v>1967.051525207737</v>
       </c>
       <c r="AB2" t="n">
-        <v>2258.607584241067</v>
+        <v>2691.406676977879</v>
       </c>
       <c r="AC2" t="n">
-        <v>2043.049246376753</v>
+        <v>2434.542601140105</v>
       </c>
       <c r="AD2" t="n">
-        <v>1650734.365575652</v>
+        <v>1967051.525207737</v>
       </c>
       <c r="AE2" t="n">
-        <v>2258607.584241067</v>
+        <v>2691406.676977879</v>
       </c>
       <c r="AF2" t="n">
         <v>2.867354422588626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.12731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>2043049.246376753</v>
+        <v>2434542.601140106</v>
       </c>
     </row>
     <row r="3">
@@ -14833,28 +14833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1192.953383018329</v>
+        <v>1451.77303433778</v>
       </c>
       <c r="AB3" t="n">
-        <v>1632.251448034541</v>
+        <v>1986.379913286965</v>
       </c>
       <c r="AC3" t="n">
-        <v>1476.471660713419</v>
+        <v>1796.802602264575</v>
       </c>
       <c r="AD3" t="n">
-        <v>1192953.383018329</v>
+        <v>1451773.03433778</v>
       </c>
       <c r="AE3" t="n">
-        <v>1632251.448034541</v>
+        <v>1986379.913286965</v>
       </c>
       <c r="AF3" t="n">
         <v>3.598229705861554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.89814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1476471.660713419</v>
+        <v>1796802.602264575</v>
       </c>
     </row>
     <row r="4">
@@ -14939,28 +14939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1081.780737313545</v>
+        <v>1321.356181258105</v>
       </c>
       <c r="AB4" t="n">
-        <v>1480.140129590276</v>
+        <v>1807.937821317865</v>
       </c>
       <c r="AC4" t="n">
-        <v>1338.877633011899</v>
+        <v>1635.390773107956</v>
       </c>
       <c r="AD4" t="n">
-        <v>1081780.737313545</v>
+        <v>1321356.181258105</v>
       </c>
       <c r="AE4" t="n">
-        <v>1480140.129590276</v>
+        <v>1807937.821317865</v>
       </c>
       <c r="AF4" t="n">
         <v>3.865733286361888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.31018518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>1338877.633011898</v>
+        <v>1635390.773107956</v>
       </c>
     </row>
     <row r="5">
@@ -15045,28 +15045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1021.156187060925</v>
+        <v>1251.244672448378</v>
       </c>
       <c r="AB5" t="n">
-        <v>1397.190945368246</v>
+        <v>1712.008161862926</v>
       </c>
       <c r="AC5" t="n">
-        <v>1263.845002512108</v>
+        <v>1548.616505713275</v>
       </c>
       <c r="AD5" t="n">
-        <v>1021156.187060925</v>
+        <v>1251244.672448378</v>
       </c>
       <c r="AE5" t="n">
-        <v>1397190.945368246</v>
+        <v>1712008.161862927</v>
       </c>
       <c r="AF5" t="n">
         <v>4.006100062619604e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.6087962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1263845.002512108</v>
+        <v>1548616.505713275</v>
       </c>
     </row>
     <row r="6">
@@ -15151,28 +15151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>977.3099931500624</v>
+        <v>1197.742714946217</v>
       </c>
       <c r="AB6" t="n">
-        <v>1337.198648501848</v>
+        <v>1638.80442326869</v>
       </c>
       <c r="AC6" t="n">
-        <v>1209.578286258921</v>
+        <v>1482.39922918838</v>
       </c>
       <c r="AD6" t="n">
-        <v>977309.9931500624</v>
+        <v>1197742.714946217</v>
       </c>
       <c r="AE6" t="n">
-        <v>1337198.648501848</v>
+        <v>1638804.42326869</v>
       </c>
       <c r="AF6" t="n">
         <v>4.120652259335669e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1209578.286258921</v>
+        <v>1482399.22918838</v>
       </c>
     </row>
     <row r="7">
@@ -15257,28 +15257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>965.8312268521346</v>
+        <v>1186.263948648289</v>
       </c>
       <c r="AB7" t="n">
-        <v>1321.492894045595</v>
+        <v>1623.098668812437</v>
       </c>
       <c r="AC7" t="n">
-        <v>1195.371466964808</v>
+        <v>1468.192409894266</v>
       </c>
       <c r="AD7" t="n">
-        <v>965831.2268521346</v>
+        <v>1186263.948648289</v>
       </c>
       <c r="AE7" t="n">
-        <v>1321492.894045595</v>
+        <v>1623098.668812437</v>
       </c>
       <c r="AF7" t="n">
         <v>4.148080250098671e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.02314814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>1195371.466964808</v>
+        <v>1468192.409894266</v>
       </c>
     </row>
     <row r="8">
@@ -15363,28 +15363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>941.2131335679179</v>
+        <v>1161.713175171777</v>
       </c>
       <c r="AB8" t="n">
-        <v>1287.809332740505</v>
+        <v>1589.507217438188</v>
       </c>
       <c r="AC8" t="n">
-        <v>1164.902617475501</v>
+        <v>1437.806879493278</v>
       </c>
       <c r="AD8" t="n">
-        <v>941213.1335679179</v>
+        <v>1161713.175171777</v>
       </c>
       <c r="AE8" t="n">
-        <v>1287809.332740505</v>
+        <v>1589507.217438188</v>
       </c>
       <c r="AF8" t="n">
         <v>4.184704684823385e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.62962962962964</v>
       </c>
       <c r="AH8" t="n">
-        <v>1164902.617475501</v>
+        <v>1437806.879493278</v>
       </c>
     </row>
     <row r="9">
@@ -15469,28 +15469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>924.2123563131206</v>
+        <v>1135.090799744463</v>
       </c>
       <c r="AB9" t="n">
-        <v>1264.548119279132</v>
+        <v>1553.081308882226</v>
       </c>
       <c r="AC9" t="n">
-        <v>1143.861421579564</v>
+        <v>1404.857408525812</v>
       </c>
       <c r="AD9" t="n">
-        <v>924212.3563131206</v>
+        <v>1135090.799744463</v>
       </c>
       <c r="AE9" t="n">
-        <v>1264548.119279132</v>
+        <v>1553081.308882226</v>
       </c>
       <c r="AF9" t="n">
         <v>4.2240719186244e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.21296296296297</v>
       </c>
       <c r="AH9" t="n">
-        <v>1143861.421579564</v>
+        <v>1404857.408525812</v>
       </c>
     </row>
     <row r="10">
@@ -15575,28 +15575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>915.0306796194907</v>
+        <v>1125.909123050833</v>
       </c>
       <c r="AB10" t="n">
-        <v>1251.98534415992</v>
+        <v>1540.518533763014</v>
       </c>
       <c r="AC10" t="n">
-        <v>1132.497620085764</v>
+        <v>1393.493607032013</v>
       </c>
       <c r="AD10" t="n">
-        <v>915030.6796194906</v>
+        <v>1125909.123050833</v>
       </c>
       <c r="AE10" t="n">
-        <v>1251985.34415992</v>
+        <v>1540518.533763014</v>
       </c>
       <c r="AF10" t="n">
         <v>4.233752385952518e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.1087962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>1132497.620085764</v>
+        <v>1393493.607032013</v>
       </c>
     </row>
     <row r="11">
@@ -15681,28 +15681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>888.9974863984713</v>
+        <v>1109.46336258355</v>
       </c>
       <c r="AB11" t="n">
-        <v>1216.365580691494</v>
+        <v>1518.01671875593</v>
       </c>
       <c r="AC11" t="n">
-        <v>1100.277356850112</v>
+        <v>1373.139333667709</v>
       </c>
       <c r="AD11" t="n">
-        <v>888997.4863984713</v>
+        <v>1109463.36258355</v>
       </c>
       <c r="AE11" t="n">
-        <v>1216365.580691494</v>
+        <v>1518016.71875593</v>
       </c>
       <c r="AF11" t="n">
         <v>4.264407199158225e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.7962962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>1100277.356850112</v>
+        <v>1373139.333667709</v>
       </c>
     </row>
     <row r="12">
@@ -15787,28 +15787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>886.9057554713618</v>
+        <v>1107.37163165644</v>
       </c>
       <c r="AB12" t="n">
-        <v>1213.503582156367</v>
+        <v>1515.154720220803</v>
       </c>
       <c r="AC12" t="n">
-        <v>1097.688503438337</v>
+        <v>1370.550480255935</v>
       </c>
       <c r="AD12" t="n">
-        <v>886905.7554713618</v>
+        <v>1107371.63165644</v>
       </c>
       <c r="AE12" t="n">
-        <v>1213503.582156367</v>
+        <v>1515154.720220803</v>
       </c>
       <c r="AF12" t="n">
         <v>4.268118044967338e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>1097688.503438337</v>
+        <v>1370550.480255935</v>
       </c>
     </row>
     <row r="13">
@@ -15893,28 +15893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>889.3460799021818</v>
+        <v>1109.81195608726</v>
       </c>
       <c r="AB13" t="n">
-        <v>1216.842541702131</v>
+        <v>1518.493679766567</v>
       </c>
       <c r="AC13" t="n">
-        <v>1100.708797371312</v>
+        <v>1373.57077418891</v>
       </c>
       <c r="AD13" t="n">
-        <v>889346.0799021819</v>
+        <v>1109811.95608726</v>
       </c>
       <c r="AE13" t="n">
-        <v>1216842.541702131</v>
+        <v>1518493.679766567</v>
       </c>
       <c r="AF13" t="n">
         <v>4.267956703845202e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>1100708.797371312</v>
+        <v>1373570.77418891</v>
       </c>
     </row>
   </sheetData>
@@ -16190,28 +16190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1874.265426505325</v>
+        <v>2221.534866044758</v>
       </c>
       <c r="AB2" t="n">
-        <v>2564.452643299463</v>
+        <v>3039.602010923901</v>
       </c>
       <c r="AC2" t="n">
-        <v>2319.704882254852</v>
+        <v>2749.506661109425</v>
       </c>
       <c r="AD2" t="n">
-        <v>1874265.426505324</v>
+        <v>2221534.866044758</v>
       </c>
       <c r="AE2" t="n">
-        <v>2564452.643299464</v>
+        <v>3039602.010923901</v>
       </c>
       <c r="AF2" t="n">
         <v>2.539466208473553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.40972222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>2319704.882254852</v>
+        <v>2749506.661109425</v>
       </c>
     </row>
     <row r="3">
@@ -16296,28 +16296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1303.368381436619</v>
+        <v>1573.530582735096</v>
       </c>
       <c r="AB3" t="n">
-        <v>1783.326120036385</v>
+        <v>2152.973962568101</v>
       </c>
       <c r="AC3" t="n">
-        <v>1613.127978054041</v>
+        <v>1947.497149298536</v>
       </c>
       <c r="AD3" t="n">
-        <v>1303368.381436619</v>
+        <v>1573530.582735096</v>
       </c>
       <c r="AE3" t="n">
-        <v>1783326.120036385</v>
+        <v>2152973.962568101</v>
       </c>
       <c r="AF3" t="n">
         <v>3.287219077055571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.62268518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>1613127.978054042</v>
+        <v>1947497.149298536</v>
       </c>
     </row>
     <row r="4">
@@ -16402,28 +16402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1161.77241119945</v>
+        <v>1402.948186808713</v>
       </c>
       <c r="AB4" t="n">
-        <v>1589.588266784559</v>
+        <v>1919.575602897445</v>
       </c>
       <c r="AC4" t="n">
-        <v>1437.880193603785</v>
+        <v>1736.374001498192</v>
       </c>
       <c r="AD4" t="n">
-        <v>1161772.41119945</v>
+        <v>1402948.186808713</v>
       </c>
       <c r="AE4" t="n">
-        <v>1589588.266784559</v>
+        <v>1919575.602897445</v>
       </c>
       <c r="AF4" t="n">
         <v>3.572766251921413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.34027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1437880.193603785</v>
+        <v>1736374.001498192</v>
       </c>
     </row>
     <row r="5">
@@ -16508,28 +16508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1097.057386714834</v>
+        <v>1328.582071890667</v>
       </c>
       <c r="AB5" t="n">
-        <v>1501.042315259325</v>
+        <v>1817.824603665131</v>
       </c>
       <c r="AC5" t="n">
-        <v>1357.784943417095</v>
+        <v>1644.333974824186</v>
       </c>
       <c r="AD5" t="n">
-        <v>1097057.386714834</v>
+        <v>1328582.071890667</v>
       </c>
       <c r="AE5" t="n">
-        <v>1501042.315259325</v>
+        <v>1817824.603665131</v>
       </c>
       <c r="AF5" t="n">
         <v>3.71409306700168e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.4537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1357784.943417095</v>
+        <v>1644333.974824186</v>
       </c>
     </row>
     <row r="6">
@@ -16614,28 +16614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1056.900024622372</v>
+        <v>1288.390544379424</v>
       </c>
       <c r="AB6" t="n">
-        <v>1446.097240826638</v>
+        <v>1762.832782599196</v>
       </c>
       <c r="AC6" t="n">
-        <v>1308.083749772367</v>
+        <v>1594.590495979278</v>
       </c>
       <c r="AD6" t="n">
-        <v>1056900.024622372</v>
+        <v>1288390.544379424</v>
       </c>
       <c r="AE6" t="n">
-        <v>1446097.240826637</v>
+        <v>1762832.782599196</v>
       </c>
       <c r="AF6" t="n">
         <v>3.805011287478964e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.31944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>1308083.749772367</v>
+        <v>1594590.495979278</v>
       </c>
     </row>
     <row r="7">
@@ -16720,28 +16720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1028.365896352422</v>
+        <v>1259.923735917179</v>
       </c>
       <c r="AB7" t="n">
-        <v>1407.055587690798</v>
+        <v>1723.883239394198</v>
       </c>
       <c r="AC7" t="n">
-        <v>1272.768177216507</v>
+        <v>1559.358242511738</v>
       </c>
       <c r="AD7" t="n">
-        <v>1028365.896352422</v>
+        <v>1259923.735917179</v>
       </c>
       <c r="AE7" t="n">
-        <v>1407055.587690798</v>
+        <v>1723883.239394198</v>
       </c>
       <c r="AF7" t="n">
         <v>3.859988636879801e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.65972222222223</v>
       </c>
       <c r="AH7" t="n">
-        <v>1272768.177216507</v>
+        <v>1559358.242511738</v>
       </c>
     </row>
     <row r="8">
@@ -16826,28 +16826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1011.812080889353</v>
+        <v>1233.685675631757</v>
       </c>
       <c r="AB8" t="n">
-        <v>1384.405927071431</v>
+        <v>1687.983167770158</v>
       </c>
       <c r="AC8" t="n">
-        <v>1252.280168417655</v>
+        <v>1526.884423337429</v>
       </c>
       <c r="AD8" t="n">
-        <v>1011812.080889353</v>
+        <v>1233685.675631757</v>
       </c>
       <c r="AE8" t="n">
-        <v>1384405.927071431</v>
+        <v>1687983.167770158</v>
       </c>
       <c r="AF8" t="n">
         <v>3.903544099286004e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.15046296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>1252280.168417655</v>
+        <v>1526884.423337429</v>
       </c>
     </row>
     <row r="9">
@@ -16932,28 +16932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>986.7060859322271</v>
+        <v>1208.647000482335</v>
       </c>
       <c r="AB9" t="n">
-        <v>1350.054797172763</v>
+        <v>1653.724147802333</v>
       </c>
       <c r="AC9" t="n">
-        <v>1221.207462144403</v>
+        <v>1495.895036152496</v>
       </c>
       <c r="AD9" t="n">
-        <v>986706.0859322271</v>
+        <v>1208647.000482335</v>
       </c>
       <c r="AE9" t="n">
-        <v>1350054.797172763</v>
+        <v>1653724.147802333</v>
       </c>
       <c r="AF9" t="n">
         <v>3.940855596801807e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.72222222222223</v>
       </c>
       <c r="AH9" t="n">
-        <v>1221207.462144403</v>
+        <v>1495895.036152496</v>
       </c>
     </row>
     <row r="10">
@@ -17038,28 +17038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>974.7465462892493</v>
+        <v>1196.585975612872</v>
       </c>
       <c r="AB10" t="n">
-        <v>1333.69122741559</v>
+        <v>1637.221721481069</v>
       </c>
       <c r="AC10" t="n">
-        <v>1206.405608518439</v>
+        <v>1480.967578238034</v>
       </c>
       <c r="AD10" t="n">
-        <v>974746.5462892493</v>
+        <v>1196585.975612872</v>
       </c>
       <c r="AE10" t="n">
-        <v>1333691.22741559</v>
+        <v>1637221.721481069</v>
       </c>
       <c r="AF10" t="n">
         <v>3.965222289057026e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.45601851851851</v>
       </c>
       <c r="AH10" t="n">
-        <v>1206405.608518439</v>
+        <v>1480967.578238034</v>
       </c>
     </row>
     <row r="11">
@@ -17144,28 +17144,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>962.58020963925</v>
+        <v>1174.836879367004</v>
       </c>
       <c r="AB11" t="n">
-        <v>1317.044708870169</v>
+        <v>1607.463648495065</v>
       </c>
       <c r="AC11" t="n">
-        <v>1191.347810339458</v>
+        <v>1454.049573972096</v>
       </c>
       <c r="AD11" t="n">
-        <v>962580.2096392501</v>
+        <v>1174836.879367004</v>
       </c>
       <c r="AE11" t="n">
-        <v>1317044.708870169</v>
+        <v>1607463.648495065</v>
       </c>
       <c r="AF11" t="n">
         <v>3.986847728433533e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.21296296296297</v>
       </c>
       <c r="AH11" t="n">
-        <v>1191347.810339458</v>
+        <v>1454049.573972096</v>
       </c>
     </row>
     <row r="12">
@@ -17250,28 +17250,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>939.6501611016059</v>
+        <v>1161.556910232933</v>
       </c>
       <c r="AB12" t="n">
-        <v>1285.670804858618</v>
+        <v>1589.293408854939</v>
       </c>
       <c r="AC12" t="n">
-        <v>1162.968187693218</v>
+        <v>1437.613476501132</v>
       </c>
       <c r="AD12" t="n">
-        <v>939650.161101606</v>
+        <v>1161556.910232933</v>
       </c>
       <c r="AE12" t="n">
-        <v>1285670.804858618</v>
+        <v>1589293.408854939</v>
       </c>
       <c r="AF12" t="n">
         <v>4.008168584156848e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.98148148148149</v>
       </c>
       <c r="AH12" t="n">
-        <v>1162968.187693218</v>
+        <v>1437613.476501132</v>
       </c>
     </row>
     <row r="13">
@@ -17356,28 +17356,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>931.1116277761618</v>
+        <v>1153.018376907489</v>
       </c>
       <c r="AB13" t="n">
-        <v>1273.988006869241</v>
+        <v>1577.610610865562</v>
       </c>
       <c r="AC13" t="n">
-        <v>1152.400379547038</v>
+        <v>1427.045668354951</v>
       </c>
       <c r="AD13" t="n">
-        <v>931111.6277761618</v>
+        <v>1153018.376907489</v>
       </c>
       <c r="AE13" t="n">
-        <v>1273988.006869241</v>
+        <v>1577610.610865562</v>
       </c>
       <c r="AF13" t="n">
         <v>4.020504222111053e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.8425925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>1152400.379547038</v>
+        <v>1427045.668354951</v>
       </c>
     </row>
     <row r="14">
@@ -17462,28 +17462,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>919.9088157143788</v>
+        <v>1141.815564845706</v>
       </c>
       <c r="AB14" t="n">
-        <v>1258.659825173122</v>
+        <v>1562.282429169444</v>
       </c>
       <c r="AC14" t="n">
-        <v>1138.535097998758</v>
+        <v>1413.180386806672</v>
       </c>
       <c r="AD14" t="n">
-        <v>919908.8157143787</v>
+        <v>1141815.564845706</v>
       </c>
       <c r="AE14" t="n">
-        <v>1258659.825173122</v>
+        <v>1562282.429169444</v>
       </c>
       <c r="AF14" t="n">
         <v>4.034058194678017e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.69212962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>1138535.097998758</v>
+        <v>1413180.386806672</v>
       </c>
     </row>
     <row r="15">
@@ -17568,28 +17568,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>921.7923384173399</v>
+        <v>1143.699087548667</v>
       </c>
       <c r="AB15" t="n">
-        <v>1261.236944030471</v>
+        <v>1564.859548026792</v>
       </c>
       <c r="AC15" t="n">
-        <v>1140.866260249371</v>
+        <v>1415.511549057284</v>
       </c>
       <c r="AD15" t="n">
-        <v>921792.33841734</v>
+        <v>1143699.087548667</v>
       </c>
       <c r="AE15" t="n">
-        <v>1261236.944030471</v>
+        <v>1564859.548026792</v>
       </c>
       <c r="AF15" t="n">
         <v>4.033753611024828e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.69212962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>1140866.260249371</v>
+        <v>1415511.549057284</v>
       </c>
     </row>
   </sheetData>
@@ -17865,28 +17865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2416.484623611723</v>
+        <v>2816.591041595295</v>
       </c>
       <c r="AB2" t="n">
-        <v>3306.340869803343</v>
+        <v>3853.784122337881</v>
       </c>
       <c r="AC2" t="n">
-        <v>2990.788337667742</v>
+        <v>3485.984374521796</v>
       </c>
       <c r="AD2" t="n">
-        <v>2416484.623611723</v>
+        <v>2816591.041595295</v>
       </c>
       <c r="AE2" t="n">
-        <v>3306340.869803343</v>
+        <v>3853784.122337881</v>
       </c>
       <c r="AF2" t="n">
         <v>2.021797779948134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.24768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>2990788.337667742</v>
+        <v>3485984.374521796</v>
       </c>
     </row>
     <row r="3">
@@ -17971,28 +17971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1535.855630138571</v>
+        <v>1818.876359238451</v>
       </c>
       <c r="AB3" t="n">
-        <v>2101.425430323934</v>
+        <v>2488.666877871739</v>
       </c>
       <c r="AC3" t="n">
-        <v>1900.868336622932</v>
+        <v>2251.15200391356</v>
       </c>
       <c r="AD3" t="n">
-        <v>1535855.630138571</v>
+        <v>1818876.35923845</v>
       </c>
       <c r="AE3" t="n">
-        <v>2101425.430323934</v>
+        <v>2488666.877871739</v>
       </c>
       <c r="AF3" t="n">
         <v>2.794715953424608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.33796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>1900868.336622932</v>
+        <v>2251152.00391356</v>
       </c>
     </row>
     <row r="4">
@@ -18077,28 +18077,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1331.473213269039</v>
+        <v>1595.001426804299</v>
       </c>
       <c r="AB4" t="n">
-        <v>1821.780390847175</v>
+        <v>2182.351318650375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1647.912227229557</v>
+        <v>1974.070771747695</v>
       </c>
       <c r="AD4" t="n">
-        <v>1331473.213269039</v>
+        <v>1595001.426804299</v>
       </c>
       <c r="AE4" t="n">
-        <v>1821780.390847175</v>
+        <v>2182351.318650375</v>
       </c>
       <c r="AF4" t="n">
         <v>3.094441521322973e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.78240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1647912.227229557</v>
+        <v>1974070.771747695</v>
       </c>
     </row>
     <row r="5">
@@ -18183,28 +18183,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1247.13449801165</v>
+        <v>1491.103887204444</v>
       </c>
       <c r="AB5" t="n">
-        <v>1706.384439870497</v>
+        <v>2040.194121333903</v>
       </c>
       <c r="AC5" t="n">
-        <v>1543.529503854859</v>
+        <v>1845.480857824228</v>
       </c>
       <c r="AD5" t="n">
-        <v>1247134.49801165</v>
+        <v>1491103.887204444</v>
       </c>
       <c r="AE5" t="n">
-        <v>1706384.439870497</v>
+        <v>2040194.121333903</v>
       </c>
       <c r="AF5" t="n">
         <v>3.253372215063075e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.24768518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>1543529.503854859</v>
+        <v>1845480.857824228</v>
       </c>
     </row>
     <row r="6">
@@ -18289,28 +18289,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1188.833829622596</v>
+        <v>1432.836373204314</v>
       </c>
       <c r="AB6" t="n">
-        <v>1626.614893336629</v>
+        <v>1960.469938097629</v>
       </c>
       <c r="AC6" t="n">
-        <v>1471.373050884922</v>
+        <v>1773.36543874243</v>
       </c>
       <c r="AD6" t="n">
-        <v>1188833.829622596</v>
+        <v>1432836.373204314</v>
       </c>
       <c r="AE6" t="n">
-        <v>1626614.893336629</v>
+        <v>1960469.938097629</v>
       </c>
       <c r="AF6" t="n">
         <v>3.353188443448627e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.78935185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1471373.050884922</v>
+        <v>1773365.43874243</v>
       </c>
     </row>
     <row r="7">
@@ -18395,28 +18395,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1152.464332721888</v>
+        <v>1386.738206745615</v>
       </c>
       <c r="AB7" t="n">
-        <v>1576.852543168118</v>
+        <v>1897.396393041266</v>
       </c>
       <c r="AC7" t="n">
-        <v>1426.359949574596</v>
+        <v>1716.31154430197</v>
       </c>
       <c r="AD7" t="n">
-        <v>1152464.332721888</v>
+        <v>1386738.206745615</v>
       </c>
       <c r="AE7" t="n">
-        <v>1576852.543168118</v>
+        <v>1897396.393041266</v>
       </c>
       <c r="AF7" t="n">
         <v>3.421301597908671e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.8287037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1426359.949574596</v>
+        <v>1716311.54430197</v>
       </c>
     </row>
     <row r="8">
@@ -18501,28 +18501,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1138.519077038956</v>
+        <v>1372.691465836198</v>
       </c>
       <c r="AB8" t="n">
-        <v>1557.77202912147</v>
+        <v>1878.177022430528</v>
       </c>
       <c r="AC8" t="n">
-        <v>1409.100453008891</v>
+        <v>1698.926443447765</v>
       </c>
       <c r="AD8" t="n">
-        <v>1138519.077038956</v>
+        <v>1372691.465836198</v>
       </c>
       <c r="AE8" t="n">
-        <v>1557772.02912147</v>
+        <v>1878177.022430528</v>
       </c>
       <c r="AF8" t="n">
         <v>3.457157912959792e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.34259259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>1409100.453008891</v>
+        <v>1698926.443447765</v>
       </c>
     </row>
     <row r="9">
@@ -18607,28 +18607,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1110.541676350039</v>
+        <v>1344.781384954986</v>
       </c>
       <c r="AB9" t="n">
-        <v>1519.492115223086</v>
+        <v>1839.989218462987</v>
       </c>
       <c r="AC9" t="n">
-        <v>1374.473920366773</v>
+        <v>1664.383229893966</v>
       </c>
       <c r="AD9" t="n">
-        <v>1110541.676350039</v>
+        <v>1344781.384954986</v>
       </c>
       <c r="AE9" t="n">
-        <v>1519492.115223086</v>
+        <v>1839989.218462987</v>
       </c>
       <c r="AF9" t="n">
         <v>3.501736034374698e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.75231481481482</v>
       </c>
       <c r="AH9" t="n">
-        <v>1374473.920366772</v>
+        <v>1664383.229893966</v>
       </c>
     </row>
     <row r="10">
@@ -18713,28 +18713,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1096.970820224235</v>
+        <v>1321.414539463487</v>
       </c>
       <c r="AB10" t="n">
-        <v>1500.923871167843</v>
+        <v>1808.01766958905</v>
       </c>
       <c r="AC10" t="n">
-        <v>1357.677803463468</v>
+        <v>1635.463000772207</v>
       </c>
       <c r="AD10" t="n">
-        <v>1096970.820224235</v>
+        <v>1321414.539463487</v>
       </c>
       <c r="AE10" t="n">
-        <v>1500923.871167843</v>
+        <v>1808017.66958905</v>
       </c>
       <c r="AF10" t="n">
         <v>3.532054694591669e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.37037037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>1357677.803463468</v>
+        <v>1635463.000772207</v>
       </c>
     </row>
     <row r="11">
@@ -18819,28 +18819,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1084.854502738949</v>
+        <v>1309.298221978202</v>
       </c>
       <c r="AB11" t="n">
-        <v>1484.345791050274</v>
+        <v>1791.43958947148</v>
       </c>
       <c r="AC11" t="n">
-        <v>1342.681912044837</v>
+        <v>1620.467109353577</v>
       </c>
       <c r="AD11" t="n">
-        <v>1084854.502738949</v>
+        <v>1309298.221978202</v>
       </c>
       <c r="AE11" t="n">
-        <v>1484345.791050274</v>
+        <v>1791439.58947148</v>
       </c>
       <c r="AF11" t="n">
         <v>3.556281934491075e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>45.05787037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1342681.912044837</v>
+        <v>1620467.109353577</v>
       </c>
     </row>
     <row r="12">
@@ -18925,28 +18925,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1065.457265950889</v>
+        <v>1289.968304997846</v>
       </c>
       <c r="AB12" t="n">
-        <v>1457.805635931158</v>
+        <v>1764.991544283207</v>
       </c>
       <c r="AC12" t="n">
-        <v>1318.674712080949</v>
+        <v>1596.543228478007</v>
       </c>
       <c r="AD12" t="n">
-        <v>1065457.265950889</v>
+        <v>1289968.304997846</v>
       </c>
       <c r="AE12" t="n">
-        <v>1457805.635931158</v>
+        <v>1764991.544283207</v>
       </c>
       <c r="AF12" t="n">
         <v>3.575109960927185e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.81481481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>1318674.712080949</v>
+        <v>1596543.228478007</v>
       </c>
     </row>
     <row r="13">
@@ -19031,28 +19031,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1058.257555125972</v>
+        <v>1282.768594172929</v>
       </c>
       <c r="AB13" t="n">
-        <v>1447.954673951683</v>
+        <v>1755.140582303731</v>
       </c>
       <c r="AC13" t="n">
-        <v>1309.763912086882</v>
+        <v>1587.632428483941</v>
       </c>
       <c r="AD13" t="n">
-        <v>1058257.555125972</v>
+        <v>1282768.594172929</v>
       </c>
       <c r="AE13" t="n">
-        <v>1447954.673951683</v>
+        <v>1755140.582303731</v>
       </c>
       <c r="AF13" t="n">
         <v>3.585354622370362e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1309763.912086882</v>
+        <v>1587632.428483941</v>
       </c>
     </row>
     <row r="14">
@@ -19137,28 +19137,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1048.427803435017</v>
+        <v>1272.837357255488</v>
       </c>
       <c r="AB14" t="n">
-        <v>1434.505174030079</v>
+        <v>1741.552225818038</v>
       </c>
       <c r="AC14" t="n">
-        <v>1297.598013561305</v>
+        <v>1575.340925669864</v>
       </c>
       <c r="AD14" t="n">
-        <v>1048427.803435017</v>
+        <v>1272837.357255488</v>
       </c>
       <c r="AE14" t="n">
-        <v>1434505.174030079</v>
+        <v>1741552.225818038</v>
       </c>
       <c r="AF14" t="n">
         <v>3.603628883323057e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.4675925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>1297598.013561305</v>
+        <v>1575340.925669864</v>
       </c>
     </row>
     <row r="15">
@@ -19243,28 +19243,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1038.845878494365</v>
+        <v>1263.255432314837</v>
       </c>
       <c r="AB15" t="n">
-        <v>1421.394761601585</v>
+        <v>1728.441813389544</v>
       </c>
       <c r="AC15" t="n">
-        <v>1285.738840494407</v>
+        <v>1563.481752602966</v>
       </c>
       <c r="AD15" t="n">
-        <v>1038845.878494365</v>
+        <v>1263255.432314836</v>
       </c>
       <c r="AE15" t="n">
-        <v>1421394.761601585</v>
+        <v>1728441.813389544</v>
       </c>
       <c r="AF15" t="n">
         <v>3.616780813554163e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>44.30555555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>1285738.840494407</v>
+        <v>1563481.752602967</v>
       </c>
     </row>
     <row r="16">
@@ -19349,28 +19349,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1029.637595657123</v>
+        <v>1244.352645338385</v>
       </c>
       <c r="AB16" t="n">
-        <v>1408.795582782903</v>
+        <v>1702.578186316258</v>
       </c>
       <c r="AC16" t="n">
-        <v>1274.342109619121</v>
+        <v>1540.086513797726</v>
       </c>
       <c r="AD16" t="n">
-        <v>1029637.595657123</v>
+        <v>1244352.645338385</v>
       </c>
       <c r="AE16" t="n">
-        <v>1408795.582782903</v>
+        <v>1702578.186316258</v>
       </c>
       <c r="AF16" t="n">
         <v>3.631317157493807e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>45</v>
+        <v>44.12037037037037</v>
       </c>
       <c r="AH16" t="n">
-        <v>1274342.109619121</v>
+        <v>1540086.513797726</v>
       </c>
     </row>
     <row r="17">
@@ -19455,28 +19455,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1022.388026971396</v>
+        <v>1237.103076652658</v>
       </c>
       <c r="AB17" t="n">
-        <v>1398.876403078693</v>
+        <v>1692.659006612048</v>
       </c>
       <c r="AC17" t="n">
-        <v>1265.369602504225</v>
+        <v>1531.11400668283</v>
       </c>
       <c r="AD17" t="n">
-        <v>1022388.026971396</v>
+        <v>1237103.076652658</v>
       </c>
       <c r="AE17" t="n">
-        <v>1398876.403078693</v>
+        <v>1692659.006612048</v>
       </c>
       <c r="AF17" t="n">
         <v>3.636439488215396e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>45</v>
+        <v>44.0625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1265369.602504225</v>
+        <v>1531114.00668283</v>
       </c>
     </row>
     <row r="18">
@@ -19561,28 +19561,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1016.616964168836</v>
+        <v>1231.332013850098</v>
       </c>
       <c r="AB18" t="n">
-        <v>1390.980180350908</v>
+        <v>1684.762783884263</v>
       </c>
       <c r="AC18" t="n">
-        <v>1258.226984191162</v>
+        <v>1523.971388369767</v>
       </c>
       <c r="AD18" t="n">
-        <v>1016616.964168836</v>
+        <v>1231332.013850098</v>
       </c>
       <c r="AE18" t="n">
-        <v>1390980.180350908</v>
+        <v>1684762.783884263</v>
       </c>
       <c r="AF18" t="n">
         <v>3.639762081115886e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>45</v>
+        <v>44.02777777777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>1258226.984191162</v>
+        <v>1523971.388369767</v>
       </c>
     </row>
     <row r="19">
@@ -19667,28 +19667,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>996.1970347174848</v>
+        <v>1220.673908345661</v>
       </c>
       <c r="AB19" t="n">
-        <v>1363.040732011862</v>
+        <v>1670.179893730663</v>
       </c>
       <c r="AC19" t="n">
-        <v>1232.954037588332</v>
+        <v>1510.780268785211</v>
       </c>
       <c r="AD19" t="n">
-        <v>996197.0347174848</v>
+        <v>1220673.908345661</v>
       </c>
       <c r="AE19" t="n">
-        <v>1363040.732011863</v>
+        <v>1670179.893730663</v>
       </c>
       <c r="AF19" t="n">
         <v>3.654852190538944e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>44</v>
+        <v>43.8425925925926</v>
       </c>
       <c r="AH19" t="n">
-        <v>1232954.037588332</v>
+        <v>1510780.268785211</v>
       </c>
     </row>
     <row r="20">
@@ -19773,28 +19773,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>991.4851574118119</v>
+        <v>1215.962031039988</v>
       </c>
       <c r="AB20" t="n">
-        <v>1356.593733608885</v>
+        <v>1663.732895327685</v>
       </c>
       <c r="AC20" t="n">
-        <v>1227.122331664516</v>
+        <v>1504.948562861394</v>
       </c>
       <c r="AD20" t="n">
-        <v>991485.1574118119</v>
+        <v>1215962.031039988</v>
       </c>
       <c r="AE20" t="n">
-        <v>1356593.733608885</v>
+        <v>1663732.895327685</v>
       </c>
       <c r="AF20" t="n">
         <v>3.653467776830406e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>44</v>
+        <v>43.85416666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>1227122.331664516</v>
+        <v>1504948.562861394</v>
       </c>
     </row>
     <row r="21">
@@ -19879,28 +19879,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>992.0206763128864</v>
+        <v>1216.497549941063</v>
       </c>
       <c r="AB21" t="n">
-        <v>1357.326454194761</v>
+        <v>1664.465615913562</v>
       </c>
       <c r="AC21" t="n">
-        <v>1227.785122426056</v>
+        <v>1505.611353622935</v>
       </c>
       <c r="AD21" t="n">
-        <v>992020.6763128864</v>
+        <v>1216497.549941062</v>
       </c>
       <c r="AE21" t="n">
-        <v>1357326.454194762</v>
+        <v>1664465.615913562</v>
       </c>
       <c r="AF21" t="n">
         <v>3.659420755777118e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>44</v>
+        <v>43.78472222222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>1227785.122426056</v>
+        <v>1505611.353622935</v>
       </c>
     </row>
   </sheetData>
@@ -20176,28 +20176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1445.208615487447</v>
+        <v>1740.21913192635</v>
       </c>
       <c r="AB2" t="n">
-        <v>1977.398185814219</v>
+        <v>2381.044589351362</v>
       </c>
       <c r="AC2" t="n">
-        <v>1788.678078255894</v>
+        <v>2153.801035560738</v>
       </c>
       <c r="AD2" t="n">
-        <v>1445208.615487447</v>
+        <v>1740219.13192635</v>
       </c>
       <c r="AE2" t="n">
-        <v>1977398.18581422</v>
+        <v>2381044.589351363</v>
       </c>
       <c r="AF2" t="n">
         <v>3.265875921299347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.16898148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>1788678.078255894</v>
+        <v>2153801.035560737</v>
       </c>
     </row>
     <row r="3">
@@ -20282,28 +20282,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1093.729477539878</v>
+        <v>1341.107118613969</v>
       </c>
       <c r="AB3" t="n">
-        <v>1496.488923109159</v>
+        <v>1834.961925158017</v>
       </c>
       <c r="AC3" t="n">
-        <v>1353.666120623015</v>
+        <v>1659.835734406172</v>
       </c>
       <c r="AD3" t="n">
-        <v>1093729.477539877</v>
+        <v>1341107.118613969</v>
       </c>
       <c r="AE3" t="n">
-        <v>1496488.923109159</v>
+        <v>1834961.925158017</v>
       </c>
       <c r="AF3" t="n">
         <v>3.976937000185004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.23148148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>1353666.120623015</v>
+        <v>1659835.734406172</v>
       </c>
     </row>
     <row r="4">
@@ -20388,28 +20388,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>998.7522899541497</v>
+        <v>1227.12461246861</v>
       </c>
       <c r="AB4" t="n">
-        <v>1366.536944956572</v>
+        <v>1679.006031696662</v>
       </c>
       <c r="AC4" t="n">
-        <v>1236.116576876564</v>
+        <v>1518.764052531298</v>
       </c>
       <c r="AD4" t="n">
-        <v>998752.2899541496</v>
+        <v>1227124.61246861</v>
       </c>
       <c r="AE4" t="n">
-        <v>1366536.944956572</v>
+        <v>1679006.031696662</v>
       </c>
       <c r="AF4" t="n">
         <v>4.230123068807641e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1236116.576876564</v>
+        <v>1518764.052531298</v>
       </c>
     </row>
     <row r="5">
@@ -20494,28 +20494,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>943.5361150454806</v>
+        <v>1171.941591948864</v>
       </c>
       <c r="AB5" t="n">
-        <v>1290.987738480816</v>
+        <v>1603.5021885185</v>
       </c>
       <c r="AC5" t="n">
-        <v>1167.777680632877</v>
+        <v>1450.46619017575</v>
       </c>
       <c r="AD5" t="n">
-        <v>943536.1150454807</v>
+        <v>1171941.591948865</v>
       </c>
       <c r="AE5" t="n">
-        <v>1290987.738480816</v>
+        <v>1603502.1885185</v>
       </c>
       <c r="AF5" t="n">
         <v>4.363015551997435e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.78703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>1167777.680632877</v>
+        <v>1450466.19017575</v>
       </c>
     </row>
     <row r="6">
@@ -20600,28 +20600,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>911.4153213074974</v>
+        <v>1139.786632792101</v>
       </c>
       <c r="AB6" t="n">
-        <v>1247.038651419099</v>
+        <v>1559.506354823536</v>
       </c>
       <c r="AC6" t="n">
-        <v>1128.0230327574</v>
+        <v>1410.669257100093</v>
       </c>
       <c r="AD6" t="n">
-        <v>911415.3213074973</v>
+        <v>1139786.632792101</v>
       </c>
       <c r="AE6" t="n">
-        <v>1247038.651419099</v>
+        <v>1559506.354823536</v>
       </c>
       <c r="AF6" t="n">
         <v>4.439644464382201e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.98842592592592</v>
       </c>
       <c r="AH6" t="n">
-        <v>1128023.0327574</v>
+        <v>1410669.257100093</v>
       </c>
     </row>
     <row r="7">
@@ -20706,28 +20706,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>891.8262709658833</v>
+        <v>1110.644686072357</v>
       </c>
       <c r="AB7" t="n">
-        <v>1220.236048533794</v>
+        <v>1519.63305766963</v>
       </c>
       <c r="AC7" t="n">
-        <v>1103.778432673779</v>
+        <v>1374.601411464031</v>
       </c>
       <c r="AD7" t="n">
-        <v>891826.2709658833</v>
+        <v>1110644.686072357</v>
       </c>
       <c r="AE7" t="n">
-        <v>1220236.048533794</v>
+        <v>1519633.05766963</v>
       </c>
       <c r="AF7" t="n">
         <v>4.496770973389763e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.4212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1103778.432673779</v>
+        <v>1374601.411464031</v>
       </c>
     </row>
     <row r="8">
@@ -20812,28 +20812,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>873.8857875863134</v>
+        <v>1083.252791541142</v>
       </c>
       <c r="AB8" t="n">
-        <v>1195.6890876956</v>
+        <v>1482.154259126924</v>
       </c>
       <c r="AC8" t="n">
-        <v>1081.574199326106</v>
+        <v>1340.699536852417</v>
       </c>
       <c r="AD8" t="n">
-        <v>873885.7875863134</v>
+        <v>1083252.791541142</v>
       </c>
       <c r="AE8" t="n">
-        <v>1195689.0876956</v>
+        <v>1482154.259126924</v>
       </c>
       <c r="AF8" t="n">
         <v>4.533704728458095e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.0625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1081574.199326106</v>
+        <v>1340699.536852417</v>
       </c>
     </row>
     <row r="9">
@@ -20918,28 +20918,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>852.7424782972292</v>
+        <v>1071.628213211407</v>
       </c>
       <c r="AB9" t="n">
-        <v>1166.759879149301</v>
+        <v>1466.248998215978</v>
       </c>
       <c r="AC9" t="n">
-        <v>1055.405953841067</v>
+        <v>1326.312251719638</v>
       </c>
       <c r="AD9" t="n">
-        <v>852742.4782972293</v>
+        <v>1071628.213211407</v>
       </c>
       <c r="AE9" t="n">
-        <v>1166759.879149301</v>
+        <v>1466248.998215978</v>
       </c>
       <c r="AF9" t="n">
         <v>4.556313709364411e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.8425925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>1055405.953841067</v>
+        <v>1326312.251719638</v>
       </c>
     </row>
     <row r="10">
@@ -21024,28 +21024,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>849.4834170105097</v>
+        <v>1068.369151924687</v>
       </c>
       <c r="AB10" t="n">
-        <v>1162.300687717175</v>
+        <v>1461.789806783852</v>
       </c>
       <c r="AC10" t="n">
-        <v>1051.372341380708</v>
+        <v>1322.27863925928</v>
       </c>
       <c r="AD10" t="n">
-        <v>849483.4170105096</v>
+        <v>1068369.151924687</v>
       </c>
       <c r="AE10" t="n">
-        <v>1162300.687717175</v>
+        <v>1461789.806783852</v>
       </c>
       <c r="AF10" t="n">
         <v>4.56822225655934e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.72685185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>1051372.341380708</v>
+        <v>1322278.63925928</v>
       </c>
     </row>
   </sheetData>
@@ -21321,28 +21321,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1159.747605209083</v>
+        <v>1432.306342062279</v>
       </c>
       <c r="AB2" t="n">
-        <v>1586.817837900404</v>
+        <v>1959.744726105774</v>
       </c>
       <c r="AC2" t="n">
-        <v>1435.374170564012</v>
+        <v>1772.709439965236</v>
       </c>
       <c r="AD2" t="n">
-        <v>1159747.605209083</v>
+        <v>1432306.342062279</v>
       </c>
       <c r="AE2" t="n">
-        <v>1586817.837900404</v>
+        <v>1959744.726105774</v>
       </c>
       <c r="AF2" t="n">
         <v>4.082858189382497e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.63657407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>1435374.170564012</v>
+        <v>1772709.439965236</v>
       </c>
     </row>
     <row r="3">
@@ -21427,28 +21427,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>929.8447343900951</v>
+        <v>1164.799737768704</v>
       </c>
       <c r="AB3" t="n">
-        <v>1272.254587447033</v>
+        <v>1593.730388552835</v>
       </c>
       <c r="AC3" t="n">
-        <v>1150.832395241615</v>
+        <v>1441.626997084001</v>
       </c>
       <c r="AD3" t="n">
-        <v>929844.7343900951</v>
+        <v>1164799.737768704</v>
       </c>
       <c r="AE3" t="n">
-        <v>1272254.587447033</v>
+        <v>1593730.388552835</v>
       </c>
       <c r="AF3" t="n">
         <v>4.748518125858607e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.83564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1150832.395241615</v>
+        <v>1441626.997084001</v>
       </c>
     </row>
     <row r="4">
@@ -21533,28 +21533,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>862.3547041306123</v>
+        <v>1087.908774140574</v>
       </c>
       <c r="AB4" t="n">
-        <v>1179.911750596011</v>
+        <v>1488.524779926921</v>
       </c>
       <c r="AC4" t="n">
-        <v>1067.30262913567</v>
+        <v>1346.462064088345</v>
       </c>
       <c r="AD4" t="n">
-        <v>862354.7041306123</v>
+        <v>1087908.774140574</v>
       </c>
       <c r="AE4" t="n">
-        <v>1179911.750596011</v>
+        <v>1488524.779926921</v>
       </c>
       <c r="AF4" t="n">
         <v>4.978123705362453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1067302.62913567</v>
+        <v>1346462.064088345</v>
       </c>
     </row>
     <row r="5">
@@ -21639,28 +21639,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>824.8422185101589</v>
+        <v>1041.029520570255</v>
       </c>
       <c r="AB5" t="n">
-        <v>1128.585512836041</v>
+        <v>1424.382517025307</v>
       </c>
       <c r="AC5" t="n">
-        <v>1020.874895470684</v>
+        <v>1288.441448733829</v>
       </c>
       <c r="AD5" t="n">
-        <v>824842.2185101589</v>
+        <v>1041029.520570255</v>
       </c>
       <c r="AE5" t="n">
-        <v>1128585.512836041</v>
+        <v>1424382.517025307</v>
       </c>
       <c r="AF5" t="n">
         <v>5.088216637073272e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.6412037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1020874.895470684</v>
+        <v>1288441.448733829</v>
       </c>
     </row>
     <row r="6">
@@ -21745,28 +21745,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>804.2191449280778</v>
+        <v>1010.972359230603</v>
       </c>
       <c r="AB6" t="n">
-        <v>1100.368113735243</v>
+        <v>1383.256982852024</v>
       </c>
       <c r="AC6" t="n">
-        <v>995.3505253366981</v>
+        <v>1251.240877821995</v>
       </c>
       <c r="AD6" t="n">
-        <v>804219.1449280777</v>
+        <v>1010972.359230603</v>
       </c>
       <c r="AE6" t="n">
-        <v>1100368.113735243</v>
+        <v>1383256.982852024</v>
       </c>
       <c r="AF6" t="n">
         <v>5.159256995859931e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.02777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>995350.525336698</v>
+        <v>1251240.877821995</v>
       </c>
     </row>
     <row r="7">
@@ -21851,28 +21851,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>791.7732335972017</v>
+        <v>1007.926370238517</v>
       </c>
       <c r="AB7" t="n">
-        <v>1083.339068777482</v>
+        <v>1379.089326333501</v>
       </c>
       <c r="AC7" t="n">
-        <v>979.9467085292914</v>
+        <v>1247.470976592257</v>
       </c>
       <c r="AD7" t="n">
-        <v>791773.2335972018</v>
+        <v>1007926.370238517</v>
       </c>
       <c r="AE7" t="n">
-        <v>1083339.068777482</v>
+        <v>1379089.326333501</v>
       </c>
       <c r="AF7" t="n">
         <v>5.171620373217831e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.92361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>979946.7085292914</v>
+        <v>1247470.976592257</v>
       </c>
     </row>
   </sheetData>
@@ -40713,28 +40713,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>989.1993699803087</v>
+        <v>1240.324839611655</v>
       </c>
       <c r="AB2" t="n">
-        <v>1353.466218403278</v>
+        <v>1697.067164826698</v>
       </c>
       <c r="AC2" t="n">
-        <v>1224.293302120637</v>
+        <v>1535.101456464363</v>
       </c>
       <c r="AD2" t="n">
-        <v>989199.3699803087</v>
+        <v>1240324.839611655</v>
       </c>
       <c r="AE2" t="n">
-        <v>1353466.218403278</v>
+        <v>1697067.164826698</v>
       </c>
       <c r="AF2" t="n">
         <v>4.884294205491519e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1224293.302120636</v>
+        <v>1535101.456464363</v>
       </c>
     </row>
     <row r="3">
@@ -40819,28 +40819,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>824.941064623338</v>
+        <v>1048.148632001727</v>
       </c>
       <c r="AB3" t="n">
-        <v>1128.720758448875</v>
+        <v>1434.123199358877</v>
       </c>
       <c r="AC3" t="n">
-        <v>1020.997233432048</v>
+        <v>1297.252494016617</v>
       </c>
       <c r="AD3" t="n">
-        <v>824941.0646233379</v>
+        <v>1048148.632001727</v>
       </c>
       <c r="AE3" t="n">
-        <v>1128720.758448875</v>
+        <v>1434123.199358877</v>
       </c>
       <c r="AF3" t="n">
         <v>5.510643999373248e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.28472222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>1020997.233432048</v>
+        <v>1297252.494016618</v>
       </c>
     </row>
     <row r="4">
@@ -40925,28 +40925,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>761.4645934329915</v>
+        <v>975.3661933937285</v>
       </c>
       <c r="AB4" t="n">
-        <v>1041.869450181975</v>
+        <v>1334.539055920839</v>
       </c>
       <c r="AC4" t="n">
-        <v>942.4348921295643</v>
+        <v>1207.172521461082</v>
       </c>
       <c r="AD4" t="n">
-        <v>761464.5934329915</v>
+        <v>975366.1933937285</v>
       </c>
       <c r="AE4" t="n">
-        <v>1041869.450181975</v>
+        <v>1334539.055920839</v>
       </c>
       <c r="AF4" t="n">
         <v>5.749106517663196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.36342592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>942434.8921295643</v>
+        <v>1207172.521461082</v>
       </c>
     </row>
     <row r="5">
@@ -41031,28 +41031,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>757.214313467529</v>
+        <v>971.1159134282658</v>
       </c>
       <c r="AB5" t="n">
-        <v>1036.054029624111</v>
+        <v>1328.723635362975</v>
       </c>
       <c r="AC5" t="n">
-        <v>937.1744871477487</v>
+        <v>1201.912116479266</v>
       </c>
       <c r="AD5" t="n">
-        <v>757214.313467529</v>
+        <v>971115.9134282658</v>
       </c>
       <c r="AE5" t="n">
-        <v>1036054.029624111</v>
+        <v>1328723.635362975</v>
       </c>
       <c r="AF5" t="n">
         <v>5.762550338010411e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.27083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>937174.4871477487</v>
+        <v>1201912.116479266</v>
       </c>
     </row>
   </sheetData>
@@ -41328,28 +41328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>702.3657305881301</v>
+        <v>930.2061206365114</v>
       </c>
       <c r="AB2" t="n">
-        <v>961.0077787798184</v>
+        <v>1272.749052052616</v>
       </c>
       <c r="AC2" t="n">
-        <v>869.2905451559606</v>
+        <v>1151.279668839227</v>
       </c>
       <c r="AD2" t="n">
-        <v>702365.7305881301</v>
+        <v>930206.1206365114</v>
       </c>
       <c r="AE2" t="n">
-        <v>961007.7787798184</v>
+        <v>1272749.052052616</v>
       </c>
       <c r="AF2" t="n">
         <v>7.198263927401723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.86342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>869290.5451559606</v>
+        <v>1151279.668839227</v>
       </c>
     </row>
     <row r="3">
@@ -41434,28 +41434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>681.1162810782693</v>
+        <v>899.8731210932424</v>
       </c>
       <c r="AB3" t="n">
-        <v>931.933344500877</v>
+        <v>1231.24610388002</v>
       </c>
       <c r="AC3" t="n">
-        <v>842.9909340783765</v>
+        <v>1113.737703790471</v>
       </c>
       <c r="AD3" t="n">
-        <v>681116.2810782692</v>
+        <v>899873.1210932424</v>
       </c>
       <c r="AE3" t="n">
-        <v>931933.344500877</v>
+        <v>1231246.10388002</v>
       </c>
       <c r="AF3" t="n">
         <v>7.347213628430363e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.91435185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>842990.9340783765</v>
+        <v>1113737.703790471</v>
       </c>
     </row>
   </sheetData>
@@ -41731,28 +41731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1760.493278874496</v>
+        <v>2087.486590183395</v>
       </c>
       <c r="AB2" t="n">
-        <v>2408.784571638053</v>
+        <v>2856.191246097653</v>
       </c>
       <c r="AC2" t="n">
-        <v>2178.893552871296</v>
+        <v>2583.600362259684</v>
       </c>
       <c r="AD2" t="n">
-        <v>1760493.278874496</v>
+        <v>2087486.590183395</v>
       </c>
       <c r="AE2" t="n">
-        <v>2408784.571638053</v>
+        <v>2856191.246097653</v>
       </c>
       <c r="AF2" t="n">
         <v>2.695376081789137e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.2337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2178893.552871296</v>
+        <v>2583600.362259684</v>
       </c>
     </row>
     <row r="3">
@@ -41837,28 +41837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1249.423456322862</v>
+        <v>1518.693145448601</v>
       </c>
       <c r="AB3" t="n">
-        <v>1709.516293613611</v>
+        <v>2077.942961615729</v>
       </c>
       <c r="AC3" t="n">
-        <v>1546.362457872314</v>
+        <v>1879.627001770387</v>
       </c>
       <c r="AD3" t="n">
-        <v>1249423.456322862</v>
+        <v>1518693.145448601</v>
       </c>
       <c r="AE3" t="n">
-        <v>1709516.293613611</v>
+        <v>2077942.961615729</v>
       </c>
       <c r="AF3" t="n">
         <v>3.431973368069048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1546362.457872314</v>
+        <v>1879627.001770387</v>
       </c>
     </row>
     <row r="4">
@@ -41943,28 +41943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1118.047038503277</v>
+        <v>1368.075857244582</v>
       </c>
       <c r="AB4" t="n">
-        <v>1529.761282834357</v>
+        <v>1871.861743129199</v>
       </c>
       <c r="AC4" t="n">
-        <v>1383.76301303409</v>
+        <v>1693.213885539405</v>
       </c>
       <c r="AD4" t="n">
-        <v>1118047.038503277</v>
+        <v>1368075.857244582</v>
       </c>
       <c r="AE4" t="n">
-        <v>1529761.282834357</v>
+        <v>1871861.743129199</v>
       </c>
       <c r="AF4" t="n">
         <v>3.708823708660647e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.86574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1383763.01303409</v>
+        <v>1693213.885539405</v>
       </c>
     </row>
     <row r="5">
@@ -42049,28 +42049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1064.680984659773</v>
+        <v>1295.469944046501</v>
       </c>
       <c r="AB5" t="n">
-        <v>1456.743493621541</v>
+        <v>1772.519129544761</v>
       </c>
       <c r="AC5" t="n">
-        <v>1317.713939142635</v>
+        <v>1603.352391567232</v>
       </c>
       <c r="AD5" t="n">
-        <v>1064680.984659774</v>
+        <v>1295469.944046501</v>
       </c>
       <c r="AE5" t="n">
-        <v>1456743.493621541</v>
+        <v>1772519.129544761</v>
       </c>
       <c r="AF5" t="n">
         <v>3.8511636179354e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.06018518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>1317713.939142635</v>
+        <v>1603352.391567232</v>
       </c>
     </row>
     <row r="6">
@@ -42155,28 +42155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1015.752330914931</v>
+        <v>1246.574444690582</v>
       </c>
       <c r="AB6" t="n">
-        <v>1389.797150987989</v>
+        <v>1705.618150208804</v>
       </c>
       <c r="AC6" t="n">
-        <v>1257.156861490247</v>
+        <v>1542.836347802984</v>
       </c>
       <c r="AD6" t="n">
-        <v>1015752.330914931</v>
+        <v>1246574.444690582</v>
       </c>
       <c r="AE6" t="n">
-        <v>1389797.150987989</v>
+        <v>1705618.150208804</v>
       </c>
       <c r="AF6" t="n">
         <v>3.945430532548604e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.9375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1257156.861490247</v>
+        <v>1542836.347802984</v>
       </c>
     </row>
     <row r="7">
@@ -42261,28 +42261,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>998.3238121770788</v>
+        <v>1219.492336371589</v>
       </c>
       <c r="AB7" t="n">
-        <v>1365.950682758878</v>
+        <v>1668.563214828461</v>
       </c>
       <c r="AC7" t="n">
-        <v>1235.586266720194</v>
+        <v>1509.317883448412</v>
       </c>
       <c r="AD7" t="n">
-        <v>998323.8121770788</v>
+        <v>1219492.336371589</v>
       </c>
       <c r="AE7" t="n">
-        <v>1365950.682758878</v>
+        <v>1668563.214828461</v>
       </c>
       <c r="AF7" t="n">
         <v>3.994756243683418e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.37037037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1235586.266720194</v>
+        <v>1509317.883448412</v>
       </c>
     </row>
     <row r="8">
@@ -42367,28 +42367,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>972.1445472761255</v>
+        <v>1202.932495632996</v>
       </c>
       <c r="AB8" t="n">
-        <v>1330.131057573738</v>
+        <v>1645.905310161305</v>
       </c>
       <c r="AC8" t="n">
-        <v>1203.185216289565</v>
+        <v>1488.822417402121</v>
       </c>
       <c r="AD8" t="n">
-        <v>972144.5472761255</v>
+        <v>1202932.495632996</v>
       </c>
       <c r="AE8" t="n">
-        <v>1330131.057573739</v>
+        <v>1645905.310161305</v>
       </c>
       <c r="AF8" t="n">
         <v>4.037818372451908e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.88425925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>1203185.216289565</v>
+        <v>1488822.417402121</v>
       </c>
     </row>
     <row r="9">
@@ -42473,28 +42473,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>955.985393783207</v>
+        <v>1177.119752558936</v>
       </c>
       <c r="AB9" t="n">
-        <v>1308.021390873189</v>
+        <v>1610.587176309524</v>
       </c>
       <c r="AC9" t="n">
-        <v>1183.185665147803</v>
+        <v>1456.874996675841</v>
       </c>
       <c r="AD9" t="n">
-        <v>955985.3937832069</v>
+        <v>1177119.752558936</v>
       </c>
       <c r="AE9" t="n">
-        <v>1308021.390873189</v>
+        <v>1610587.176309524</v>
       </c>
       <c r="AF9" t="n">
         <v>4.075713045768179e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.4675925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>1183185.665147803</v>
+        <v>1456874.996675842</v>
       </c>
     </row>
     <row r="10">
@@ -42579,28 +42579,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>943.3870705572662</v>
+        <v>1154.96932497834</v>
       </c>
       <c r="AB10" t="n">
-        <v>1290.783809236662</v>
+        <v>1580.279984085855</v>
       </c>
       <c r="AC10" t="n">
-        <v>1167.593214109569</v>
+        <v>1429.460280341588</v>
       </c>
       <c r="AD10" t="n">
-        <v>943387.0705572661</v>
+        <v>1154969.32497834</v>
       </c>
       <c r="AE10" t="n">
-        <v>1290783.809236662</v>
+        <v>1580279.984085855</v>
       </c>
       <c r="AF10" t="n">
         <v>4.100923964792641e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.18981481481482</v>
       </c>
       <c r="AH10" t="n">
-        <v>1167593.214109569</v>
+        <v>1429460.280341588</v>
       </c>
     </row>
     <row r="11">
@@ -42685,28 +42685,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>930.9021326237144</v>
+        <v>1142.484387044788</v>
       </c>
       <c r="AB11" t="n">
-        <v>1273.701366359388</v>
+        <v>1563.197541208581</v>
       </c>
       <c r="AC11" t="n">
-        <v>1152.141095605143</v>
+        <v>1414.008161837162</v>
       </c>
       <c r="AD11" t="n">
-        <v>930902.1326237144</v>
+        <v>1142484.387044788</v>
       </c>
       <c r="AE11" t="n">
-        <v>1273701.366359388</v>
+        <v>1563197.541208581</v>
       </c>
       <c r="AF11" t="n">
         <v>4.116269741590138e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.02777777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1152141.095605143</v>
+        <v>1414008.161837162</v>
       </c>
     </row>
     <row r="12">
@@ -42791,28 +42791,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>908.8925906388216</v>
+        <v>1130.094269222256</v>
       </c>
       <c r="AB12" t="n">
-        <v>1243.586940023195</v>
+        <v>1546.244835390371</v>
       </c>
       <c r="AC12" t="n">
-        <v>1124.900747852613</v>
+        <v>1398.67339846897</v>
       </c>
       <c r="AD12" t="n">
-        <v>908892.5906388216</v>
+        <v>1130094.269222256</v>
       </c>
       <c r="AE12" t="n">
-        <v>1243586.940023195</v>
+        <v>1546244.835390371</v>
       </c>
       <c r="AF12" t="n">
         <v>4.137409332076488e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.80787037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1124900.747852613</v>
+        <v>1398673.39846897</v>
       </c>
     </row>
     <row r="13">
@@ -42897,28 +42897,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>902.6991376181263</v>
+        <v>1123.90081620156</v>
       </c>
       <c r="AB13" t="n">
-        <v>1235.112784364416</v>
+        <v>1537.770679731593</v>
       </c>
       <c r="AC13" t="n">
-        <v>1117.235353716356</v>
+        <v>1391.008004332714</v>
       </c>
       <c r="AD13" t="n">
-        <v>902699.1376181263</v>
+        <v>1123900.81620156</v>
       </c>
       <c r="AE13" t="n">
-        <v>1235112.784364416</v>
+        <v>1537770.679731593</v>
       </c>
       <c r="AF13" t="n">
         <v>4.147431063862609e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.7037037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>1117235.353716356</v>
+        <v>1391008.004332714</v>
       </c>
     </row>
     <row r="14">
@@ -43003,28 +43003,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>905.0256819830769</v>
+        <v>1126.227360566511</v>
       </c>
       <c r="AB14" t="n">
-        <v>1238.296065004435</v>
+        <v>1540.953960371611</v>
       </c>
       <c r="AC14" t="n">
-        <v>1120.114826519854</v>
+        <v>1393.887477136211</v>
       </c>
       <c r="AD14" t="n">
-        <v>905025.6819830769</v>
+        <v>1126227.360566511</v>
       </c>
       <c r="AE14" t="n">
-        <v>1238296.065004435</v>
+        <v>1540953.960371611</v>
       </c>
       <c r="AF14" t="n">
         <v>4.146021757830185e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.71527777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>1120114.826519854</v>
+        <v>1393887.477136211</v>
       </c>
     </row>
   </sheetData>
@@ -43300,28 +43300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2267.370350820298</v>
+        <v>2656.721006282353</v>
       </c>
       <c r="AB2" t="n">
-        <v>3102.316143312671</v>
+        <v>3635.042887054518</v>
       </c>
       <c r="AC2" t="n">
-        <v>2806.235444722847</v>
+        <v>3288.119495728632</v>
       </c>
       <c r="AD2" t="n">
-        <v>2267370.350820297</v>
+        <v>2656721.006282353</v>
       </c>
       <c r="AE2" t="n">
-        <v>3102316.143312671</v>
+        <v>3635042.887054518</v>
       </c>
       <c r="AF2" t="n">
         <v>2.135565941503177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.68981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>2806235.444722847</v>
+        <v>3288119.495728632</v>
       </c>
     </row>
     <row r="3">
@@ -43406,28 +43406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1475.965518819477</v>
+        <v>1758.183403170049</v>
       </c>
       <c r="AB3" t="n">
-        <v>2019.481137851913</v>
+        <v>2405.624097794704</v>
       </c>
       <c r="AC3" t="n">
-        <v>1826.744692414904</v>
+        <v>2176.034710215804</v>
       </c>
       <c r="AD3" t="n">
-        <v>1475965.518819477</v>
+        <v>1758183.403170049</v>
       </c>
       <c r="AE3" t="n">
-        <v>2019481.137851913</v>
+        <v>2405624.097794704</v>
       </c>
       <c r="AF3" t="n">
         <v>2.904726244823343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.37731481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>1826744.692414904</v>
+        <v>2176034.710215804</v>
       </c>
     </row>
     <row r="4">
@@ -43512,28 +43512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1294.544928043784</v>
+        <v>1547.587991434257</v>
       </c>
       <c r="AB4" t="n">
-        <v>1771.253481841019</v>
+        <v>2117.478164643942</v>
       </c>
       <c r="AC4" t="n">
-        <v>1602.207535503987</v>
+        <v>1915.389020509593</v>
       </c>
       <c r="AD4" t="n">
-        <v>1294544.928043785</v>
+        <v>1547587.991434257</v>
       </c>
       <c r="AE4" t="n">
-        <v>1771253.481841019</v>
+        <v>2117478.164643942</v>
       </c>
       <c r="AF4" t="n">
         <v>3.198467376113384e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.2037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1602207.535503987</v>
+        <v>1915389.020509593</v>
       </c>
     </row>
     <row r="5">
@@ -43618,28 +43618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1204.618918573671</v>
+        <v>1447.992972978888</v>
       </c>
       <c r="AB5" t="n">
-        <v>1648.212748428467</v>
+        <v>1981.207866571192</v>
       </c>
       <c r="AC5" t="n">
-        <v>1490.909636999575</v>
+        <v>1792.124168428342</v>
       </c>
       <c r="AD5" t="n">
-        <v>1204618.918573671</v>
+        <v>1447992.972978888</v>
       </c>
       <c r="AE5" t="n">
-        <v>1648212.748428466</v>
+        <v>1981207.866571192</v>
       </c>
       <c r="AF5" t="n">
         <v>3.355666989245965e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.80787037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1490909.636999574</v>
+        <v>1792124.168428342</v>
       </c>
     </row>
     <row r="6">
@@ -43724,28 +43724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1159.396533617884</v>
+        <v>1392.966939422437</v>
       </c>
       <c r="AB6" t="n">
-        <v>1586.33748626114</v>
+        <v>1905.918819881985</v>
       </c>
       <c r="AC6" t="n">
-        <v>1434.939663011021</v>
+        <v>1724.020602686312</v>
       </c>
       <c r="AD6" t="n">
-        <v>1159396.533617884</v>
+        <v>1392966.939422437</v>
       </c>
       <c r="AE6" t="n">
-        <v>1586337.48626114</v>
+        <v>1905918.819881985</v>
       </c>
       <c r="AF6" t="n">
         <v>3.450892317453189e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.4537037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1434939.663011021</v>
+        <v>1724020.602686312</v>
       </c>
     </row>
     <row r="7">
@@ -43830,28 +43830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1120.77487500476</v>
+        <v>1354.311115390532</v>
       </c>
       <c r="AB7" t="n">
-        <v>1533.493629079339</v>
+        <v>1853.028216066936</v>
       </c>
       <c r="AC7" t="n">
-        <v>1387.139149391832</v>
+        <v>1676.177803866943</v>
       </c>
       <c r="AD7" t="n">
-        <v>1120774.87500476</v>
+        <v>1354311.115390532</v>
       </c>
       <c r="AE7" t="n">
-        <v>1533493.629079339</v>
+        <v>1853028.216066936</v>
       </c>
       <c r="AF7" t="n">
         <v>3.528996895715281e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.40046296296297</v>
       </c>
       <c r="AH7" t="n">
-        <v>1387139.149391832</v>
+        <v>1676177.803866943</v>
       </c>
     </row>
     <row r="8">
@@ -43936,28 +43936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1109.048861639894</v>
+        <v>1332.917104070268</v>
       </c>
       <c r="AB8" t="n">
-        <v>1517.44958027833</v>
+        <v>1823.755985941384</v>
       </c>
       <c r="AC8" t="n">
-        <v>1372.626322090427</v>
+        <v>1649.69927430074</v>
       </c>
       <c r="AD8" t="n">
-        <v>1109048.861639894</v>
+        <v>1332917.104070268</v>
       </c>
       <c r="AE8" t="n">
-        <v>1517449.58027833</v>
+        <v>1823755.985941384</v>
       </c>
       <c r="AF8" t="n">
         <v>3.558427606364765e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.01851851851851</v>
       </c>
       <c r="AH8" t="n">
-        <v>1372626.322090427</v>
+        <v>1649699.27430074</v>
       </c>
     </row>
     <row r="9">
@@ -44042,28 +44042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1081.602994694812</v>
+        <v>1305.437071706404</v>
       </c>
       <c r="AB9" t="n">
-        <v>1479.896934297874</v>
+        <v>1786.15659332768</v>
       </c>
       <c r="AC9" t="n">
-        <v>1338.657647936876</v>
+        <v>1615.688314947009</v>
       </c>
       <c r="AD9" t="n">
-        <v>1081602.994694812</v>
+        <v>1305437.071706404</v>
       </c>
       <c r="AE9" t="n">
-        <v>1479896.934297874</v>
+        <v>1786156.59332768</v>
       </c>
       <c r="AF9" t="n">
         <v>3.602573672338991e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.46296296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>1338657.647936876</v>
+        <v>1615688.314947009</v>
       </c>
     </row>
     <row r="10">
@@ -44148,28 +44148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1069.875808882932</v>
+        <v>1293.709885894524</v>
       </c>
       <c r="AB10" t="n">
-        <v>1463.851281303135</v>
+        <v>1770.110940332941</v>
       </c>
       <c r="AC10" t="n">
-        <v>1324.14336954374</v>
+        <v>1601.174036553873</v>
       </c>
       <c r="AD10" t="n">
-        <v>1069875.808882931</v>
+        <v>1293709.885894524</v>
       </c>
       <c r="AE10" t="n">
-        <v>1463851.281303135</v>
+        <v>1770110.940332941</v>
       </c>
       <c r="AF10" t="n">
         <v>3.626344630940497e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.16203703703704</v>
       </c>
       <c r="AH10" t="n">
-        <v>1324143.36954374</v>
+        <v>1601174.036553873</v>
       </c>
     </row>
     <row r="11">
@@ -44254,28 +44254,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1047.439651630529</v>
+        <v>1271.341048449827</v>
       </c>
       <c r="AB11" t="n">
-        <v>1433.153141136998</v>
+        <v>1739.504910097646</v>
       </c>
       <c r="AC11" t="n">
-        <v>1296.375016789949</v>
+        <v>1573.489002888401</v>
       </c>
       <c r="AD11" t="n">
-        <v>1047439.651630529</v>
+        <v>1271341.048449827</v>
       </c>
       <c r="AE11" t="n">
-        <v>1433153.141136998</v>
+        <v>1739504.910097646</v>
       </c>
       <c r="AF11" t="n">
         <v>3.649832601939604e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.87268518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>1296375.016789949</v>
+        <v>1573489.002888401</v>
       </c>
     </row>
     <row r="12">
@@ -44360,28 +44360,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1037.695676246879</v>
+        <v>1261.597073066176</v>
       </c>
       <c r="AB12" t="n">
-        <v>1419.821004143233</v>
+        <v>1726.17277310388</v>
       </c>
       <c r="AC12" t="n">
-        <v>1284.315280239097</v>
+        <v>1561.429266337548</v>
       </c>
       <c r="AD12" t="n">
-        <v>1037695.676246879</v>
+        <v>1261597.073066176</v>
       </c>
       <c r="AE12" t="n">
-        <v>1419821.004143232</v>
+        <v>1726172.77310388</v>
       </c>
       <c r="AF12" t="n">
         <v>3.670066215511124e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.61805555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>1284315.280239097</v>
+        <v>1561429.266337548</v>
       </c>
     </row>
     <row r="13">
@@ -44466,28 +44466,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1030.775478085214</v>
+        <v>1254.575389678027</v>
       </c>
       <c r="AB13" t="n">
-        <v>1410.352483720847</v>
+        <v>1716.565396117406</v>
       </c>
       <c r="AC13" t="n">
-        <v>1275.750422116672</v>
+        <v>1552.738803926625</v>
       </c>
       <c r="AD13" t="n">
-        <v>1030775.478085214</v>
+        <v>1254575.389678027</v>
       </c>
       <c r="AE13" t="n">
-        <v>1410352.483720847</v>
+        <v>1716565.396117406</v>
       </c>
       <c r="AF13" t="n">
         <v>3.684074101829869e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.45601851851851</v>
       </c>
       <c r="AH13" t="n">
-        <v>1275750.422116672</v>
+        <v>1552738.803926625</v>
       </c>
     </row>
     <row r="14">
@@ -44572,28 +44572,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1019.423883660534</v>
+        <v>1243.223795253346</v>
       </c>
       <c r="AB14" t="n">
-        <v>1394.820731431998</v>
+        <v>1701.033643828556</v>
       </c>
       <c r="AC14" t="n">
-        <v>1261.700998467319</v>
+        <v>1538.689380277272</v>
       </c>
       <c r="AD14" t="n">
-        <v>1019423.883660534</v>
+        <v>1243223.795253346</v>
       </c>
       <c r="AE14" t="n">
-        <v>1394820.731431998</v>
+        <v>1701033.643828556</v>
       </c>
       <c r="AF14" t="n">
         <v>3.698364975751013e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.28240740740741</v>
       </c>
       <c r="AH14" t="n">
-        <v>1261700.998467319</v>
+        <v>1538689.380277272</v>
       </c>
     </row>
     <row r="15">
@@ -44678,28 +44678,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1011.067876719133</v>
+        <v>1225.199790356547</v>
       </c>
       <c r="AB15" t="n">
-        <v>1383.387674093765</v>
+        <v>1676.37240516578</v>
       </c>
       <c r="AC15" t="n">
-        <v>1251.359096075051</v>
+        <v>1516.381775620205</v>
       </c>
       <c r="AD15" t="n">
-        <v>1011067.876719133</v>
+        <v>1225199.790356547</v>
       </c>
       <c r="AE15" t="n">
-        <v>1383387.674093765</v>
+        <v>1676372.40516578</v>
       </c>
       <c r="AF15" t="n">
         <v>3.711382405461362e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>44.12037037037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>1251359.096075051</v>
+        <v>1516381.775620205</v>
       </c>
     </row>
     <row r="16">
@@ -44784,28 +44784,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>990.8245688027138</v>
+        <v>1214.69180020323</v>
       </c>
       <c r="AB16" t="n">
-        <v>1355.689887130804</v>
+        <v>1661.994909458204</v>
       </c>
       <c r="AC16" t="n">
-        <v>1226.304747025746</v>
+        <v>1503.376447924018</v>
       </c>
       <c r="AD16" t="n">
-        <v>990824.5688027138</v>
+        <v>1214691.80020323</v>
       </c>
       <c r="AE16" t="n">
-        <v>1355689.887130804</v>
+        <v>1661994.909458204</v>
       </c>
       <c r="AF16" t="n">
         <v>3.725248797978907e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.95833333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1226304.747025746</v>
+        <v>1503376.447924018</v>
       </c>
     </row>
     <row r="17">
@@ -44890,28 +44890,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>983.0079477642754</v>
+        <v>1206.875179164792</v>
       </c>
       <c r="AB17" t="n">
-        <v>1344.994841381031</v>
+        <v>1651.29986370843</v>
       </c>
       <c r="AC17" t="n">
-        <v>1216.63042143174</v>
+        <v>1493.702122330012</v>
       </c>
       <c r="AD17" t="n">
-        <v>983007.9477642754</v>
+        <v>1206875.179164792</v>
       </c>
       <c r="AE17" t="n">
-        <v>1344994.841381031</v>
+        <v>1651299.86370843</v>
       </c>
       <c r="AF17" t="n">
         <v>3.730201081020887e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>44</v>
+        <v>43.90046296296296</v>
       </c>
       <c r="AH17" t="n">
-        <v>1216630.42143174</v>
+        <v>1493702.122330012</v>
       </c>
     </row>
     <row r="18">
@@ -44996,28 +44996,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>975.8069742769067</v>
+        <v>1199.674205677423</v>
       </c>
       <c r="AB18" t="n">
-        <v>1335.142151771083</v>
+        <v>1641.447174098483</v>
       </c>
       <c r="AC18" t="n">
-        <v>1207.71805868983</v>
+        <v>1484.789759588102</v>
       </c>
       <c r="AD18" t="n">
-        <v>975806.9742769067</v>
+        <v>1199674.205677423</v>
       </c>
       <c r="AE18" t="n">
-        <v>1335142.151771083</v>
+        <v>1641447.174098483</v>
       </c>
       <c r="AF18" t="n">
         <v>3.735011870261668e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>44</v>
+        <v>43.8425925925926</v>
       </c>
       <c r="AH18" t="n">
-        <v>1207718.05868983</v>
+        <v>1484789.759588102</v>
       </c>
     </row>
     <row r="19">
@@ -45102,28 +45102,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>974.382798255412</v>
+        <v>1198.250029655929</v>
       </c>
       <c r="AB19" t="n">
-        <v>1333.193531308263</v>
+        <v>1639.498553635662</v>
       </c>
       <c r="AC19" t="n">
-        <v>1205.955411829075</v>
+        <v>1483.027112727346</v>
       </c>
       <c r="AD19" t="n">
-        <v>974382.798255412</v>
+        <v>1198250.029655928</v>
       </c>
       <c r="AE19" t="n">
-        <v>1333193.531308263</v>
+        <v>1639498.553635662</v>
       </c>
       <c r="AF19" t="n">
         <v>3.741237597514444e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>44</v>
+        <v>43.77314814814815</v>
       </c>
       <c r="AH19" t="n">
-        <v>1205955.411829075</v>
+        <v>1483027.112727346</v>
       </c>
     </row>
   </sheetData>
@@ -45399,28 +45399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>656.5007867993422</v>
+        <v>882.1741899052095</v>
       </c>
       <c r="AB2" t="n">
-        <v>898.2533392694846</v>
+        <v>1207.029645406817</v>
       </c>
       <c r="AC2" t="n">
-        <v>812.5253012760841</v>
+        <v>1091.832430125937</v>
       </c>
       <c r="AD2" t="n">
-        <v>656500.7867993423</v>
+        <v>882174.1899052095</v>
       </c>
       <c r="AE2" t="n">
-        <v>898253.3392694846</v>
+        <v>1207029.645406817</v>
       </c>
       <c r="AF2" t="n">
         <v>8.279566793271846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.98611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>812525.301276084</v>
+        <v>1091832.430125937</v>
       </c>
     </row>
   </sheetData>
@@ -45696,28 +45696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1253.223462700514</v>
+        <v>1536.346882451903</v>
       </c>
       <c r="AB2" t="n">
-        <v>1714.715629983964</v>
+        <v>2102.097583411557</v>
       </c>
       <c r="AC2" t="n">
-        <v>1551.065576876796</v>
+        <v>1901.476340363246</v>
       </c>
       <c r="AD2" t="n">
-        <v>1253223.462700514</v>
+        <v>1536346.882451903</v>
       </c>
       <c r="AE2" t="n">
-        <v>1714715.629983964</v>
+        <v>2102097.583411557</v>
       </c>
       <c r="AF2" t="n">
         <v>3.769532023533464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.4537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1551065.576876796</v>
+        <v>1901476.340363245</v>
       </c>
     </row>
     <row r="3">
@@ -45802,28 +45802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>986.4173089679382</v>
+        <v>1222.460840062021</v>
       </c>
       <c r="AB3" t="n">
-        <v>1349.659679790283</v>
+        <v>1672.62485253885</v>
       </c>
       <c r="AC3" t="n">
-        <v>1220.850054210355</v>
+        <v>1512.991884156266</v>
       </c>
       <c r="AD3" t="n">
-        <v>986417.3089679382</v>
+        <v>1222460.840062021</v>
       </c>
       <c r="AE3" t="n">
-        <v>1349659.679790283</v>
+        <v>1672624.85253885</v>
       </c>
       <c r="AF3" t="n">
         <v>4.448470720916148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.69212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1220850.054210355</v>
+        <v>1512991.884156266</v>
       </c>
     </row>
     <row r="4">
@@ -45908,28 +45908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>912.7453234449476</v>
+        <v>1129.869484429077</v>
       </c>
       <c r="AB4" t="n">
-        <v>1248.858419019112</v>
+        <v>1545.93727491954</v>
       </c>
       <c r="AC4" t="n">
-        <v>1129.669124291727</v>
+        <v>1398.395191137811</v>
       </c>
       <c r="AD4" t="n">
-        <v>912745.3234449476</v>
+        <v>1129869.484429077</v>
       </c>
       <c r="AE4" t="n">
-        <v>1248858.419019112</v>
+        <v>1545937.27491954</v>
       </c>
       <c r="AF4" t="n">
         <v>4.692125126647199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.15740740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1129669.124291727</v>
+        <v>1398395.191137811</v>
       </c>
     </row>
     <row r="5">
@@ -46014,28 +46014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>861.9043103611385</v>
+        <v>1088.436402757145</v>
       </c>
       <c r="AB5" t="n">
-        <v>1179.295501970647</v>
+        <v>1489.246704677445</v>
       </c>
       <c r="AC5" t="n">
-        <v>1066.7451944142</v>
+        <v>1347.115089353907</v>
       </c>
       <c r="AD5" t="n">
-        <v>861904.3103611385</v>
+        <v>1088436.402757145</v>
       </c>
       <c r="AE5" t="n">
-        <v>1179295.501970647</v>
+        <v>1489246.704677445</v>
       </c>
       <c r="AF5" t="n">
         <v>4.819566486326804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.94212962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1066745.1944142</v>
+        <v>1347115.089353907</v>
       </c>
     </row>
     <row r="6">
@@ -46120,28 +46120,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>839.8456661866572</v>
+        <v>1056.901496333225</v>
       </c>
       <c r="AB6" t="n">
-        <v>1149.113891852423</v>
+        <v>1446.099254486355</v>
       </c>
       <c r="AC6" t="n">
-        <v>1039.444074805503</v>
+        <v>1308.085571251228</v>
       </c>
       <c r="AD6" t="n">
-        <v>839845.6661866573</v>
+        <v>1056901.496333225</v>
       </c>
       <c r="AE6" t="n">
-        <v>1149113.891852423</v>
+        <v>1446099.254486355</v>
       </c>
       <c r="AF6" t="n">
         <v>4.890304862184206e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.29398148148149</v>
       </c>
       <c r="AH6" t="n">
-        <v>1039444.074805503</v>
+        <v>1308085.571251228</v>
       </c>
     </row>
     <row r="7">
@@ -46226,28 +46226,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>812.6761324599862</v>
+        <v>1029.799282414259</v>
       </c>
       <c r="AB7" t="n">
-        <v>1111.939337172358</v>
+        <v>1409.016809737132</v>
       </c>
       <c r="AC7" t="n">
-        <v>1005.817407449289</v>
+        <v>1274.542222983333</v>
       </c>
       <c r="AD7" t="n">
-        <v>812676.1324599863</v>
+        <v>1029799.282414259</v>
       </c>
       <c r="AE7" t="n">
-        <v>1111939.337172358</v>
+        <v>1409016.809737132</v>
       </c>
       <c r="AF7" t="n">
         <v>4.932036761168864e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.91203703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>1005817.407449289</v>
+        <v>1274542.222983333</v>
       </c>
     </row>
     <row r="8">
@@ -46332,28 +46332,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>812.7487179306751</v>
+        <v>1029.871867884948</v>
       </c>
       <c r="AB8" t="n">
-        <v>1112.0386518156</v>
+        <v>1409.116124380374</v>
       </c>
       <c r="AC8" t="n">
-        <v>1005.907243642369</v>
+        <v>1274.632059176412</v>
       </c>
       <c r="AD8" t="n">
-        <v>812748.717930675</v>
+        <v>1029871.867884948</v>
       </c>
       <c r="AE8" t="n">
-        <v>1112038.6518156</v>
+        <v>1409116.124380374</v>
       </c>
       <c r="AF8" t="n">
         <v>4.935966670938719e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.87731481481481</v>
       </c>
       <c r="AH8" t="n">
-        <v>1005907.243642369</v>
+        <v>1274632.059176412</v>
       </c>
     </row>
   </sheetData>
@@ -46629,28 +46629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1546.404953707114</v>
+        <v>1852.061802852539</v>
       </c>
       <c r="AB2" t="n">
-        <v>2115.859480233724</v>
+        <v>2534.072665862981</v>
       </c>
       <c r="AC2" t="n">
-        <v>1913.924821067648</v>
+        <v>2292.224327226341</v>
       </c>
       <c r="AD2" t="n">
-        <v>1546404.953707114</v>
+        <v>1852061.802852539</v>
       </c>
       <c r="AE2" t="n">
-        <v>2115859.480233724</v>
+        <v>2534072.665862981</v>
       </c>
       <c r="AF2" t="n">
         <v>3.055424770018519e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1913924.821067648</v>
+        <v>2292224.327226341</v>
       </c>
     </row>
     <row r="3">
@@ -46735,28 +46735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1147.97793828537</v>
+        <v>1396.305099736061</v>
       </c>
       <c r="AB3" t="n">
-        <v>1570.714060374321</v>
+        <v>1910.486238092325</v>
       </c>
       <c r="AC3" t="n">
-        <v>1420.807314963224</v>
+        <v>1728.152112913069</v>
       </c>
       <c r="AD3" t="n">
-        <v>1147977.93828537</v>
+        <v>1396305.099736061</v>
       </c>
       <c r="AE3" t="n">
-        <v>1570714.060374321</v>
+        <v>1910486.238092325</v>
       </c>
       <c r="AF3" t="n">
         <v>3.777955409350996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.05324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1420807.314963224</v>
+        <v>1728152.112913069</v>
       </c>
     </row>
     <row r="4">
@@ -46841,28 +46841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1035.225732276122</v>
+        <v>1274.031100166615</v>
       </c>
       <c r="AB4" t="n">
-        <v>1416.441517836205</v>
+        <v>1743.185557533262</v>
       </c>
       <c r="AC4" t="n">
-        <v>1281.258327362073</v>
+        <v>1576.818374498582</v>
       </c>
       <c r="AD4" t="n">
-        <v>1035225.732276122</v>
+        <v>1274031.100166615</v>
       </c>
       <c r="AE4" t="n">
-        <v>1416441.517836205</v>
+        <v>1743185.557533262</v>
       </c>
       <c r="AF4" t="n">
         <v>4.038906281397734e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.75462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1281258.327362073</v>
+        <v>1576818.374498582</v>
       </c>
     </row>
     <row r="5">
@@ -46947,28 +46947,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>988.2670525810436</v>
+        <v>1217.45015271471</v>
       </c>
       <c r="AB5" t="n">
-        <v>1352.190580606663</v>
+        <v>1665.769009054335</v>
       </c>
       <c r="AC5" t="n">
-        <v>1223.139409404961</v>
+        <v>1506.790352751676</v>
       </c>
       <c r="AD5" t="n">
-        <v>988267.0525810436</v>
+        <v>1217450.15271471</v>
       </c>
       <c r="AE5" t="n">
-        <v>1352190.580606663</v>
+        <v>1665769.009054335</v>
       </c>
       <c r="AF5" t="n">
         <v>4.172214517436937e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.22685185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1223139.409404961</v>
+        <v>1506790.352751676</v>
       </c>
     </row>
     <row r="6">
@@ -47053,28 +47053,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>958.4790828921713</v>
+        <v>1178.242885721982</v>
       </c>
       <c r="AB6" t="n">
-        <v>1311.433366325873</v>
+        <v>1612.12389665234</v>
       </c>
       <c r="AC6" t="n">
-        <v>1186.272006452021</v>
+        <v>1458.26505458594</v>
       </c>
       <c r="AD6" t="n">
-        <v>958479.0828921712</v>
+        <v>1178242.885721982</v>
       </c>
       <c r="AE6" t="n">
-        <v>1311433.366325873</v>
+        <v>1612123.89665234</v>
       </c>
       <c r="AF6" t="n">
         <v>4.237868823686244e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.50925925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1186272.006452021</v>
+        <v>1458265.05458594</v>
       </c>
     </row>
     <row r="7">
@@ -47159,28 +47159,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>925.8800887743778</v>
+        <v>1145.609726185407</v>
       </c>
       <c r="AB7" t="n">
-        <v>1266.829984407788</v>
+        <v>1567.473768101008</v>
       </c>
       <c r="AC7" t="n">
-        <v>1145.925508702958</v>
+        <v>1417.876271636698</v>
       </c>
       <c r="AD7" t="n">
-        <v>925880.0887743778</v>
+        <v>1145609.726185407</v>
       </c>
       <c r="AE7" t="n">
-        <v>1266829.984407788</v>
+        <v>1567473.768101008</v>
       </c>
       <c r="AF7" t="n">
         <v>4.308855459377119e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.75694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>1145925.508702958</v>
+        <v>1417876.271636698</v>
       </c>
     </row>
     <row r="8">
@@ -47265,28 +47265,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>908.0360107813192</v>
+        <v>1127.664162965864</v>
       </c>
       <c r="AB8" t="n">
-        <v>1242.414929672524</v>
+        <v>1542.919856801655</v>
       </c>
       <c r="AC8" t="n">
-        <v>1123.840592524883</v>
+        <v>1395.665751170124</v>
       </c>
       <c r="AD8" t="n">
-        <v>908036.0107813192</v>
+        <v>1127664.162965864</v>
       </c>
       <c r="AE8" t="n">
-        <v>1242414.929672524</v>
+        <v>1542919.856801655</v>
       </c>
       <c r="AF8" t="n">
         <v>4.353513718450252e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.30555555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1123840.592524883</v>
+        <v>1395665.751170124</v>
       </c>
     </row>
     <row r="9">
@@ -47371,28 +47371,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>883.6100703766149</v>
+        <v>1103.305542368864</v>
       </c>
       <c r="AB9" t="n">
-        <v>1208.99428041437</v>
+        <v>1509.591317474342</v>
       </c>
       <c r="AC9" t="n">
-        <v>1093.609563125751</v>
+        <v>1365.518040859311</v>
       </c>
       <c r="AD9" t="n">
-        <v>883610.0703766149</v>
+        <v>1103305.542368864</v>
       </c>
       <c r="AE9" t="n">
-        <v>1208994.28041437</v>
+        <v>1509591.317474342</v>
       </c>
       <c r="AF9" t="n">
         <v>4.385840965689759e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.96990740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>1093609.563125751</v>
+        <v>1365518.040859311</v>
       </c>
     </row>
     <row r="10">
@@ -47477,28 +47477,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>868.9769850166729</v>
+        <v>1088.672457008922</v>
       </c>
       <c r="AB10" t="n">
-        <v>1188.972647458733</v>
+        <v>1489.569684518705</v>
       </c>
       <c r="AC10" t="n">
-        <v>1075.498766718862</v>
+        <v>1347.407244452422</v>
       </c>
       <c r="AD10" t="n">
-        <v>868976.9850166729</v>
+        <v>1088672.457008922</v>
       </c>
       <c r="AE10" t="n">
-        <v>1188972.647458733</v>
+        <v>1489569.684518705</v>
       </c>
       <c r="AF10" t="n">
         <v>4.409169906996619e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.73842592592592</v>
       </c>
       <c r="AH10" t="n">
-        <v>1075498.766718862</v>
+        <v>1347407.244452422</v>
       </c>
     </row>
     <row r="11">
@@ -47583,28 +47583,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>867.5767934252228</v>
+        <v>1087.272265417472</v>
       </c>
       <c r="AB11" t="n">
-        <v>1187.056843551218</v>
+        <v>1487.653880611189</v>
       </c>
       <c r="AC11" t="n">
-        <v>1073.765804447432</v>
+        <v>1345.674282180992</v>
       </c>
       <c r="AD11" t="n">
-        <v>867576.7934252229</v>
+        <v>1087272.265417472</v>
       </c>
       <c r="AE11" t="n">
-        <v>1187056.843551218</v>
+        <v>1487653.880611189</v>
       </c>
       <c r="AF11" t="n">
         <v>4.413502424667894e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.7037037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1073765.804447432</v>
+        <v>1345674.282180992</v>
       </c>
     </row>
   </sheetData>
